--- a/REGULAR/ANGCAYA, RUFINA.xlsx
+++ b/REGULAR/ANGCAYA, RUFINA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\LCR - LOCAL CIVIL REGISTRY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB1994D-A54C-4C8A-AACD-20A0AABE2349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3D409B-8E87-40EA-900A-B60DDCEA23CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="308">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3366,7 +3366,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K548" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K583" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3744,12 +3744,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K548"/>
+  <dimension ref="A2:K583"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3564" topLeftCell="A534" activePane="bottomLeft"/>
+      <pane ySplit="3564" topLeftCell="A538" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E545" sqref="E545"/>
+      <selection pane="bottomLeft" activeCell="B549" sqref="B549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3910,7 +3910,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>178.83700000000005</v>
+        <v>180.08700000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3920,7 +3920,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>186.125</v>
+        <v>185.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15814,7 +15814,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
-        <f t="shared" ref="A537:A548" si="0">EDATE(A536,1)</f>
+        <f t="shared" ref="A537:A547" si="0">EDATE(A536,1)</f>
         <v>44835</v>
       </c>
       <c r="B537" s="20" t="s">
@@ -16035,13 +16035,15 @@
         <v>44986</v>
       </c>
       <c r="B546" s="20"/>
-      <c r="C546" s="13"/>
+      <c r="C546" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D546" s="39"/>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
-      <c r="G546" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G546" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H546" s="39"/>
       <c r="I546" s="9"/>
@@ -16053,7 +16055,9 @@
         <f t="shared" si="0"/>
         <v>45017</v>
       </c>
-      <c r="B547" s="20"/>
+      <c r="B547" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C547" s="13"/>
       <c r="D547" s="39"/>
       <c r="E547" s="9"/>
@@ -16062,17 +16066,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H547" s="39"/>
+      <c r="H547" s="39">
+        <v>1</v>
+      </c>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
-      <c r="K547" s="20"/>
+      <c r="K547" s="48">
+        <v>45003</v>
+      </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A548" s="40">
-        <f t="shared" si="0"/>
-        <v>45047</v>
-      </c>
-      <c r="B548" s="20"/>
+      <c r="A548" s="40"/>
+      <c r="B548" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C548" s="13"/>
       <c r="D548" s="39"/>
       <c r="E548" s="9"/>
@@ -16081,10 +16088,577 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H548" s="39"/>
+      <c r="H548" s="39">
+        <v>1</v>
+      </c>
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
-      <c r="K548" s="20"/>
+      <c r="K548" s="48">
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A549" s="40">
+        <f>EDATE(A547,1)</f>
+        <v>45047</v>
+      </c>
+      <c r="B549" s="20"/>
+      <c r="C549" s="13"/>
+      <c r="D549" s="39"/>
+      <c r="E549" s="9"/>
+      <c r="F549" s="20"/>
+      <c r="G549" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H549" s="39"/>
+      <c r="I549" s="9"/>
+      <c r="J549" s="11"/>
+      <c r="K549" s="20"/>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A550" s="40"/>
+      <c r="B550" s="20"/>
+      <c r="C550" s="13"/>
+      <c r="D550" s="39"/>
+      <c r="E550" s="9"/>
+      <c r="F550" s="20"/>
+      <c r="G550" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H550" s="39"/>
+      <c r="I550" s="9"/>
+      <c r="J550" s="11"/>
+      <c r="K550" s="20"/>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A551" s="40"/>
+      <c r="B551" s="20"/>
+      <c r="C551" s="13"/>
+      <c r="D551" s="39"/>
+      <c r="E551" s="9"/>
+      <c r="F551" s="20"/>
+      <c r="G551" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H551" s="39"/>
+      <c r="I551" s="9"/>
+      <c r="J551" s="11"/>
+      <c r="K551" s="20"/>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A552" s="40"/>
+      <c r="B552" s="20"/>
+      <c r="C552" s="13"/>
+      <c r="D552" s="39"/>
+      <c r="E552" s="9"/>
+      <c r="F552" s="20"/>
+      <c r="G552" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H552" s="39"/>
+      <c r="I552" s="9"/>
+      <c r="J552" s="11"/>
+      <c r="K552" s="20"/>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A553" s="40"/>
+      <c r="B553" s="20"/>
+      <c r="C553" s="13"/>
+      <c r="D553" s="39"/>
+      <c r="E553" s="9"/>
+      <c r="F553" s="20"/>
+      <c r="G553" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H553" s="39"/>
+      <c r="I553" s="9"/>
+      <c r="J553" s="11"/>
+      <c r="K553" s="20"/>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A554" s="40"/>
+      <c r="B554" s="20"/>
+      <c r="C554" s="13"/>
+      <c r="D554" s="39"/>
+      <c r="E554" s="9"/>
+      <c r="F554" s="20"/>
+      <c r="G554" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H554" s="39"/>
+      <c r="I554" s="9"/>
+      <c r="J554" s="11"/>
+      <c r="K554" s="20"/>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A555" s="40"/>
+      <c r="B555" s="20"/>
+      <c r="C555" s="13"/>
+      <c r="D555" s="39"/>
+      <c r="E555" s="9"/>
+      <c r="F555" s="20"/>
+      <c r="G555" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H555" s="39"/>
+      <c r="I555" s="9"/>
+      <c r="J555" s="11"/>
+      <c r="K555" s="20"/>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A556" s="40"/>
+      <c r="B556" s="20"/>
+      <c r="C556" s="13"/>
+      <c r="D556" s="39"/>
+      <c r="E556" s="9"/>
+      <c r="F556" s="20"/>
+      <c r="G556" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H556" s="39"/>
+      <c r="I556" s="9"/>
+      <c r="J556" s="11"/>
+      <c r="K556" s="20"/>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A557" s="40"/>
+      <c r="B557" s="20"/>
+      <c r="C557" s="13"/>
+      <c r="D557" s="39"/>
+      <c r="E557" s="9"/>
+      <c r="F557" s="20"/>
+      <c r="G557" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H557" s="39"/>
+      <c r="I557" s="9"/>
+      <c r="J557" s="11"/>
+      <c r="K557" s="20"/>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A558" s="40"/>
+      <c r="B558" s="20"/>
+      <c r="C558" s="13"/>
+      <c r="D558" s="39"/>
+      <c r="E558" s="9"/>
+      <c r="F558" s="20"/>
+      <c r="G558" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H558" s="39"/>
+      <c r="I558" s="9"/>
+      <c r="J558" s="11"/>
+      <c r="K558" s="20"/>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A559" s="40"/>
+      <c r="B559" s="20"/>
+      <c r="C559" s="13"/>
+      <c r="D559" s="39"/>
+      <c r="E559" s="9"/>
+      <c r="F559" s="20"/>
+      <c r="G559" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H559" s="39"/>
+      <c r="I559" s="9"/>
+      <c r="J559" s="11"/>
+      <c r="K559" s="20"/>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A560" s="40"/>
+      <c r="B560" s="20"/>
+      <c r="C560" s="13"/>
+      <c r="D560" s="39"/>
+      <c r="E560" s="9"/>
+      <c r="F560" s="20"/>
+      <c r="G560" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H560" s="39"/>
+      <c r="I560" s="9"/>
+      <c r="J560" s="11"/>
+      <c r="K560" s="20"/>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A561" s="40"/>
+      <c r="B561" s="20"/>
+      <c r="C561" s="13"/>
+      <c r="D561" s="39"/>
+      <c r="E561" s="9"/>
+      <c r="F561" s="20"/>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H561" s="39"/>
+      <c r="I561" s="9"/>
+      <c r="J561" s="11"/>
+      <c r="K561" s="20"/>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A562" s="40"/>
+      <c r="B562" s="20"/>
+      <c r="C562" s="13"/>
+      <c r="D562" s="39"/>
+      <c r="E562" s="9"/>
+      <c r="F562" s="20"/>
+      <c r="G562" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H562" s="39"/>
+      <c r="I562" s="9"/>
+      <c r="J562" s="11"/>
+      <c r="K562" s="20"/>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A563" s="40"/>
+      <c r="B563" s="20"/>
+      <c r="C563" s="13"/>
+      <c r="D563" s="39"/>
+      <c r="E563" s="9"/>
+      <c r="F563" s="20"/>
+      <c r="G563" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H563" s="39"/>
+      <c r="I563" s="9"/>
+      <c r="J563" s="11"/>
+      <c r="K563" s="20"/>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A564" s="40"/>
+      <c r="B564" s="20"/>
+      <c r="C564" s="13"/>
+      <c r="D564" s="39"/>
+      <c r="E564" s="9"/>
+      <c r="F564" s="20"/>
+      <c r="G564" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H564" s="39"/>
+      <c r="I564" s="9"/>
+      <c r="J564" s="11"/>
+      <c r="K564" s="20"/>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A565" s="40"/>
+      <c r="B565" s="20"/>
+      <c r="C565" s="13"/>
+      <c r="D565" s="39"/>
+      <c r="E565" s="9"/>
+      <c r="F565" s="20"/>
+      <c r="G565" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H565" s="39"/>
+      <c r="I565" s="9"/>
+      <c r="J565" s="11"/>
+      <c r="K565" s="20"/>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A566" s="40"/>
+      <c r="B566" s="20"/>
+      <c r="C566" s="13"/>
+      <c r="D566" s="39"/>
+      <c r="E566" s="9"/>
+      <c r="F566" s="20"/>
+      <c r="G566" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H566" s="39"/>
+      <c r="I566" s="9"/>
+      <c r="J566" s="11"/>
+      <c r="K566" s="20"/>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A567" s="40"/>
+      <c r="B567" s="20"/>
+      <c r="C567" s="13"/>
+      <c r="D567" s="39"/>
+      <c r="E567" s="9"/>
+      <c r="F567" s="20"/>
+      <c r="G567" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H567" s="39"/>
+      <c r="I567" s="9"/>
+      <c r="J567" s="11"/>
+      <c r="K567" s="20"/>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A568" s="40"/>
+      <c r="B568" s="20"/>
+      <c r="C568" s="13"/>
+      <c r="D568" s="39"/>
+      <c r="E568" s="9"/>
+      <c r="F568" s="20"/>
+      <c r="G568" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H568" s="39"/>
+      <c r="I568" s="9"/>
+      <c r="J568" s="11"/>
+      <c r="K568" s="20"/>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A569" s="40"/>
+      <c r="B569" s="20"/>
+      <c r="C569" s="13"/>
+      <c r="D569" s="39"/>
+      <c r="E569" s="9"/>
+      <c r="F569" s="20"/>
+      <c r="G569" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H569" s="39"/>
+      <c r="I569" s="9"/>
+      <c r="J569" s="11"/>
+      <c r="K569" s="20"/>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A570" s="40"/>
+      <c r="B570" s="20"/>
+      <c r="C570" s="13"/>
+      <c r="D570" s="39"/>
+      <c r="E570" s="9"/>
+      <c r="F570" s="20"/>
+      <c r="G570" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H570" s="39"/>
+      <c r="I570" s="9"/>
+      <c r="J570" s="11"/>
+      <c r="K570" s="20"/>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A571" s="40"/>
+      <c r="B571" s="20"/>
+      <c r="C571" s="13"/>
+      <c r="D571" s="39"/>
+      <c r="E571" s="9"/>
+      <c r="F571" s="20"/>
+      <c r="G571" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H571" s="39"/>
+      <c r="I571" s="9"/>
+      <c r="J571" s="11"/>
+      <c r="K571" s="20"/>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A572" s="40"/>
+      <c r="B572" s="20"/>
+      <c r="C572" s="13"/>
+      <c r="D572" s="39"/>
+      <c r="E572" s="9"/>
+      <c r="F572" s="20"/>
+      <c r="G572" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H572" s="39"/>
+      <c r="I572" s="9"/>
+      <c r="J572" s="11"/>
+      <c r="K572" s="20"/>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A573" s="40"/>
+      <c r="B573" s="20"/>
+      <c r="C573" s="13"/>
+      <c r="D573" s="39"/>
+      <c r="E573" s="9"/>
+      <c r="F573" s="20"/>
+      <c r="G573" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H573" s="39"/>
+      <c r="I573" s="9"/>
+      <c r="J573" s="11"/>
+      <c r="K573" s="20"/>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A574" s="40"/>
+      <c r="B574" s="20"/>
+      <c r="C574" s="13"/>
+      <c r="D574" s="39"/>
+      <c r="E574" s="9"/>
+      <c r="F574" s="20"/>
+      <c r="G574" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H574" s="39"/>
+      <c r="I574" s="9"/>
+      <c r="J574" s="11"/>
+      <c r="K574" s="20"/>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A575" s="40"/>
+      <c r="B575" s="20"/>
+      <c r="C575" s="13"/>
+      <c r="D575" s="39"/>
+      <c r="E575" s="9"/>
+      <c r="F575" s="20"/>
+      <c r="G575" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H575" s="39"/>
+      <c r="I575" s="9"/>
+      <c r="J575" s="11"/>
+      <c r="K575" s="20"/>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A576" s="40"/>
+      <c r="B576" s="20"/>
+      <c r="C576" s="13"/>
+      <c r="D576" s="39"/>
+      <c r="E576" s="9"/>
+      <c r="F576" s="20"/>
+      <c r="G576" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H576" s="39"/>
+      <c r="I576" s="9"/>
+      <c r="J576" s="11"/>
+      <c r="K576" s="20"/>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A577" s="40"/>
+      <c r="B577" s="20"/>
+      <c r="C577" s="13"/>
+      <c r="D577" s="39"/>
+      <c r="E577" s="9"/>
+      <c r="F577" s="20"/>
+      <c r="G577" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H577" s="39"/>
+      <c r="I577" s="9"/>
+      <c r="J577" s="11"/>
+      <c r="K577" s="20"/>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A578" s="40"/>
+      <c r="B578" s="20"/>
+      <c r="C578" s="13"/>
+      <c r="D578" s="39"/>
+      <c r="E578" s="9"/>
+      <c r="F578" s="20"/>
+      <c r="G578" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H578" s="39"/>
+      <c r="I578" s="9"/>
+      <c r="J578" s="11"/>
+      <c r="K578" s="20"/>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A579" s="40"/>
+      <c r="B579" s="20"/>
+      <c r="C579" s="13"/>
+      <c r="D579" s="39"/>
+      <c r="E579" s="9"/>
+      <c r="F579" s="20"/>
+      <c r="G579" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H579" s="39"/>
+      <c r="I579" s="9"/>
+      <c r="J579" s="11"/>
+      <c r="K579" s="20"/>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A580" s="40"/>
+      <c r="B580" s="20"/>
+      <c r="C580" s="13"/>
+      <c r="D580" s="39"/>
+      <c r="E580" s="9"/>
+      <c r="F580" s="20"/>
+      <c r="G580" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H580" s="39"/>
+      <c r="I580" s="9"/>
+      <c r="J580" s="11"/>
+      <c r="K580" s="20"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A581" s="40"/>
+      <c r="B581" s="20"/>
+      <c r="C581" s="13"/>
+      <c r="D581" s="39"/>
+      <c r="E581" s="9"/>
+      <c r="F581" s="20"/>
+      <c r="G581" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H581" s="39"/>
+      <c r="I581" s="9"/>
+      <c r="J581" s="11"/>
+      <c r="K581" s="20"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A582" s="40"/>
+      <c r="B582" s="20"/>
+      <c r="C582" s="13"/>
+      <c r="D582" s="39"/>
+      <c r="E582" s="9"/>
+      <c r="F582" s="20"/>
+      <c r="G582" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H582" s="39"/>
+      <c r="I582" s="9"/>
+      <c r="J582" s="11"/>
+      <c r="K582" s="20"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A583" s="41"/>
+      <c r="B583" s="15"/>
+      <c r="C583" s="42"/>
+      <c r="D583" s="43"/>
+      <c r="E583" s="9"/>
+      <c r="F583" s="15"/>
+      <c r="G583" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H583" s="43"/>
+      <c r="I583" s="9"/>
+      <c r="J583" s="12"/>
+      <c r="K583" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/ANGCAYA, RUFINA.xlsx
+++ b/REGULAR/ANGCAYA, RUFINA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3D409B-8E87-40EA-900A-B60DDCEA23CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="308">
   <si>
     <t>PERIOD</t>
   </si>
@@ -964,7 +963,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1831,7 +1830,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +1873,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1937,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,7 +1997,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2063,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2126,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,7 +2224,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2283,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2348,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2391,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2466,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2652,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2718,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2776,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2842,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,7 +2898,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2974,7 +2973,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3017,7 +3016,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3083,7 +3082,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,7 +3138,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3237,7 +3236,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3300,7 +3299,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3366,25 +3365,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K583" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K583" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3396,13 +3395,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3411,14 +3410,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3722,7 +3721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3732,7 +3731,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3740,34 +3739,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K583"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3564" topLeftCell="A538" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A538" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B549" sqref="B549"/>
+      <selection pane="bottomLeft" activeCell="B550" sqref="B550"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3788,7 +3787,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3806,7 +3805,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3828,7 +3827,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3836,7 +3835,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3849,7 +3848,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3866,7 +3865,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3910,7 +3909,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>180.08700000000005</v>
+        <v>181.33700000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3920,12 +3919,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>185.375</v>
+        <v>185.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>35977</v>
       </c>
@@ -3949,7 +3948,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36008</v>
       </c>
@@ -3969,7 +3968,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36039</v>
       </c>
@@ -3989,7 +3988,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36069</v>
       </c>
@@ -4009,7 +4008,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36100</v>
       </c>
@@ -4035,7 +4034,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>46</v>
@@ -4055,7 +4054,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36130</v>
       </c>
@@ -4081,7 +4080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>50</v>
       </c>
@@ -4099,7 +4098,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>36161</v>
       </c>
@@ -4125,7 +4124,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>36192</v>
       </c>
@@ -4151,7 +4150,7 @@
         <v>36207</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>36220</v>
       </c>
@@ -4171,7 +4170,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>36251</v>
       </c>
@@ -4197,7 +4196,7 @@
         <v>36258</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="20" t="s">
         <v>69</v>
@@ -4217,7 +4216,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>36281</v>
       </c>
@@ -4243,7 +4242,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>36312</v>
       </c>
@@ -4267,7 +4266,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>36342</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>36361</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="20" t="s">
         <v>71</v>
@@ -4313,7 +4312,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>36373</v>
       </c>
@@ -4333,7 +4332,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>36404</v>
       </c>
@@ -4353,7 +4352,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>36434</v>
       </c>
@@ -4379,7 +4378,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>36465</v>
       </c>
@@ -4405,7 +4404,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>36495</v>
       </c>
@@ -4425,7 +4424,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
         <v>51</v>
       </c>
@@ -4443,7 +4442,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>36526</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>36532</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>79</v>
@@ -4491,7 +4490,7 @@
         <v>36537</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>36557</v>
       </c>
@@ -4515,7 +4514,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>36586</v>
       </c>
@@ -4539,7 +4538,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>36617</v>
       </c>
@@ -4559,7 +4558,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>36647</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>36671</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="20" t="s">
         <v>71</v>
@@ -4605,7 +4604,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="20" t="s">
         <v>71</v>
@@ -4625,7 +4624,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>36678</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>36703</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>36708</v>
       </c>
@@ -4671,7 +4670,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>36739</v>
       </c>
@@ -4691,7 +4690,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>36770</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>36797</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>36800</v>
       </c>
@@ -4737,7 +4736,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>36831</v>
       </c>
@@ -4763,7 +4762,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>36861</v>
       </c>
@@ -4783,7 +4782,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>52</v>
       </c>
@@ -4801,7 +4800,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>36892</v>
       </c>
@@ -4821,7 +4820,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>36923</v>
       </c>
@@ -4841,7 +4840,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>36951</v>
       </c>
@@ -4861,7 +4860,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>36982</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>37012</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>37043</v>
       </c>
@@ -4929,7 +4928,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>37073</v>
       </c>
@@ -4949,7 +4948,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>37104</v>
       </c>
@@ -4969,7 +4968,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>37135</v>
       </c>
@@ -4989,7 +4988,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>37165</v>
       </c>
@@ -5009,7 +5008,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>37196</v>
       </c>
@@ -5035,7 +5034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="20" t="s">
         <v>48</v>
@@ -5057,7 +5056,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>37226</v>
       </c>
@@ -5077,7 +5076,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>53</v>
       </c>
@@ -5095,7 +5094,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>37257</v>
       </c>
@@ -5115,7 +5114,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>37288</v>
       </c>
@@ -5135,7 +5134,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>37316</v>
       </c>
@@ -5155,7 +5154,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>37347</v>
       </c>
@@ -5181,7 +5180,7 @@
         <v>37356</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>37377</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="20" t="s">
         <v>71</v>
@@ -5227,7 +5226,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="20" t="s">
         <v>71</v>
@@ -5247,7 +5246,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>37408</v>
       </c>
@@ -5267,7 +5266,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>37438</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>37469</v>
       </c>
@@ -5319,7 +5318,7 @@
         <v>37489</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="20" t="s">
         <v>71</v>
@@ -5339,7 +5338,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>37500</v>
       </c>
@@ -5359,7 +5358,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="41">
         <v>37530</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>37532</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="20" t="s">
         <v>67</v>
@@ -5407,7 +5406,7 @@
         <v>37537</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="20" t="s">
         <v>67</v>
@@ -5429,7 +5428,7 @@
         <v>37554</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>37561</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="20" t="s">
         <v>48</v>
@@ -5477,7 +5476,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>37591</v>
       </c>
@@ -5503,7 +5502,7 @@
         <v>37602</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
         <v>54</v>
       </c>
@@ -5521,7 +5520,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>37622</v>
       </c>
@@ -5547,7 +5546,7 @@
         <v>37641</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>37653</v>
       </c>
@@ -5573,7 +5572,7 @@
         <v>37658</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="20" t="s">
         <v>66</v>
@@ -5595,7 +5594,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>37681</v>
       </c>
@@ -5621,7 +5620,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
         <v>37712</v>
       </c>
@@ -5641,7 +5640,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
         <v>37742</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="20" t="s">
         <v>71</v>
@@ -5687,7 +5686,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="20" t="s">
         <v>71</v>
@@ -5707,7 +5706,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="20" t="s">
         <v>71</v>
@@ -5727,7 +5726,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41">
         <v>37773</v>
       </c>
@@ -5747,7 +5746,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
         <v>37803</v>
       </c>
@@ -5767,7 +5766,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41">
         <v>37834</v>
       </c>
@@ -5793,7 +5792,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41">
         <v>37865</v>
       </c>
@@ -5817,7 +5816,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41">
         <v>37895</v>
       </c>
@@ -5843,7 +5842,7 @@
         <v>37922</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="20" t="s">
         <v>67</v>
@@ -5865,7 +5864,7 @@
         <v>37918</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="20" t="s">
         <v>67</v>
@@ -5887,7 +5886,7 @@
         <v>37924</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="20" t="s">
         <v>104</v>
@@ -5907,7 +5906,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41">
         <v>37926</v>
       </c>
@@ -5933,7 +5932,7 @@
         <v>37936</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="20" t="s">
         <v>48</v>
@@ -5955,7 +5954,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="20" t="s">
         <v>67</v>
@@ -5977,7 +5976,7 @@
         <v>37956</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="20" t="s">
         <v>105</v>
@@ -5997,7 +5996,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
         <v>37956</v>
       </c>
@@ -6017,7 +6016,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="47" t="s">
         <v>55</v>
       </c>
@@ -6035,7 +6034,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41">
         <v>37987</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
       <c r="B106" s="20" t="s">
         <v>104</v>
@@ -6081,7 +6080,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41">
         <v>38018</v>
       </c>
@@ -6101,7 +6100,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41">
         <v>38047</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41">
         <v>38078</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>38089</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="41"/>
       <c r="B110" s="20" t="s">
         <v>66</v>
@@ -6173,7 +6172,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41">
         <v>38108</v>
       </c>
@@ -6199,7 +6198,7 @@
         <v>38118</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="20" t="s">
         <v>67</v>
@@ -6221,7 +6220,7 @@
         <v>38135</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>108</v>
@@ -6241,7 +6240,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41">
         <v>38139</v>
       </c>
@@ -6261,7 +6260,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41">
         <v>38169</v>
       </c>
@@ -6287,7 +6286,7 @@
         <v>38170</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="20" t="s">
         <v>73</v>
@@ -6309,7 +6308,7 @@
         <v>38195</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="41"/>
       <c r="B117" s="20" t="s">
         <v>48</v>
@@ -6331,7 +6330,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="41"/>
       <c r="B118" s="20" t="s">
         <v>113</v>
@@ -6351,7 +6350,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="41">
         <v>38200</v>
       </c>
@@ -6377,7 +6376,7 @@
         <v>38203</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="41"/>
       <c r="B120" s="20" t="s">
         <v>66</v>
@@ -6399,7 +6398,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41">
         <v>38231</v>
       </c>
@@ -6419,7 +6418,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="41">
         <v>38261</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="41"/>
       <c r="B123" s="20" t="s">
         <v>104</v>
@@ -6465,7 +6464,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41"/>
       <c r="B124" s="20" t="s">
         <v>66</v>
@@ -6487,7 +6486,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="41">
         <v>38292</v>
       </c>
@@ -6513,7 +6512,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="41">
         <v>38322</v>
       </c>
@@ -6537,7 +6536,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
         <v>56</v>
       </c>
@@ -6555,7 +6554,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41">
         <v>38353</v>
       </c>
@@ -6581,7 +6580,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="41"/>
       <c r="B129" s="20" t="s">
         <v>66</v>
@@ -6603,7 +6602,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="20" t="s">
         <v>67</v>
@@ -6625,7 +6624,7 @@
         <v>38378</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41">
         <v>38384</v>
       </c>
@@ -6645,7 +6644,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41">
         <v>38412</v>
       </c>
@@ -6671,7 +6670,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="20" t="s">
         <v>123</v>
@@ -6693,7 +6692,7 @@
         <v>38439</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="20" t="s">
         <v>125</v>
@@ -6713,7 +6712,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="48"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41">
         <v>38443</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41"/>
       <c r="B136" s="20" t="s">
         <v>75</v>
@@ -6759,7 +6758,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41">
         <v>38473</v>
       </c>
@@ -6785,7 +6784,7 @@
         <v>38477</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41"/>
       <c r="B138" s="20" t="s">
         <v>67</v>
@@ -6807,7 +6806,7 @@
         <v>38497</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="41"/>
       <c r="B139" s="20" t="s">
         <v>108</v>
@@ -6827,7 +6826,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="41"/>
       <c r="B140" s="20" t="s">
         <v>73</v>
@@ -6849,7 +6848,7 @@
         <v>38512</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41">
         <v>38504</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>38544</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="41"/>
       <c r="B142" s="20" t="s">
         <v>128</v>
@@ -6895,7 +6894,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="48"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="41">
         <v>38534</v>
       </c>
@@ -6921,7 +6920,7 @@
         <v>38562</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="41">
         <v>38565</v>
       </c>
@@ -6945,7 +6944,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="41">
         <v>38596</v>
       </c>
@@ -6971,7 +6970,7 @@
         <v>38601</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="41"/>
       <c r="B146" s="20" t="s">
         <v>122</v>
@@ -6993,7 +6992,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="41"/>
       <c r="B147" s="20" t="s">
         <v>131</v>
@@ -7013,7 +7012,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="41">
         <v>38626</v>
       </c>
@@ -7037,7 +7036,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="41">
         <v>38657</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="41"/>
       <c r="B150" s="20" t="s">
         <v>67</v>
@@ -7085,7 +7084,7 @@
         <v>38667</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="41"/>
       <c r="B151" s="20" t="s">
         <v>133</v>
@@ -7105,7 +7104,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="41">
         <v>38687</v>
       </c>
@@ -7129,7 +7128,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
         <v>57</v>
       </c>
@@ -7147,7 +7146,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="41">
         <v>38718</v>
       </c>
@@ -7173,7 +7172,7 @@
         <v>38737</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="41"/>
       <c r="B155" s="20" t="s">
         <v>136</v>
@@ -7193,7 +7192,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="41">
         <v>38749</v>
       </c>
@@ -7219,7 +7218,7 @@
         <v>38754</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41"/>
       <c r="B157" s="20" t="s">
         <v>104</v>
@@ -7239,7 +7238,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="41">
         <v>38777</v>
       </c>
@@ -7263,7 +7262,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="41"/>
       <c r="B159" s="20" t="s">
         <v>122</v>
@@ -7285,7 +7284,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="41"/>
       <c r="B160" s="20" t="s">
         <v>66</v>
@@ -7307,7 +7306,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41">
         <v>38808</v>
       </c>
@@ -7333,7 +7332,7 @@
         <v>38819</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="41"/>
       <c r="B162" s="20" t="s">
         <v>67</v>
@@ -7355,7 +7354,7 @@
         <v>38852</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="41"/>
       <c r="B163" s="20" t="s">
         <v>71</v>
@@ -7375,7 +7374,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41"/>
       <c r="B164" s="20" t="s">
         <v>67</v>
@@ -7397,7 +7396,7 @@
         <v>38863</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41"/>
       <c r="B165" s="20" t="s">
         <v>137</v>
@@ -7417,7 +7416,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="41">
         <v>38838</v>
       </c>
@@ -7437,7 +7436,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="41">
         <v>38869</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41"/>
       <c r="B168" s="20" t="s">
         <v>105</v>
@@ -7481,7 +7480,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="41">
         <v>38899</v>
       </c>
@@ -7507,7 +7506,7 @@
         <v>38919</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41"/>
       <c r="B170" s="20" t="s">
         <v>105</v>
@@ -7527,7 +7526,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="41">
         <v>38930</v>
       </c>
@@ -7553,7 +7552,7 @@
         <v>38933</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="41"/>
       <c r="B172" s="20" t="s">
         <v>66</v>
@@ -7575,7 +7574,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41"/>
       <c r="B173" s="20" t="s">
         <v>144</v>
@@ -7595,7 +7594,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="48"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41">
         <v>38961</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>38967</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41"/>
       <c r="B175" s="20" t="s">
         <v>67</v>
@@ -7643,7 +7642,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41"/>
       <c r="B176" s="20" t="s">
         <v>67</v>
@@ -7665,7 +7664,7 @@
         <v>38989</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="41"/>
       <c r="B177" s="20" t="s">
         <v>145</v>
@@ -7685,7 +7684,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="41">
         <v>38991</v>
       </c>
@@ -7711,7 +7710,7 @@
         <v>38995</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="41"/>
       <c r="B179" s="20" t="s">
         <v>122</v>
@@ -7733,7 +7732,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="41"/>
       <c r="B180" s="20" t="s">
         <v>123</v>
@@ -7755,7 +7754,7 @@
         <v>39016</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="41"/>
       <c r="B181" s="20" t="s">
         <v>67</v>
@@ -7777,7 +7776,7 @@
         <v>39017</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="41"/>
       <c r="B182" s="20" t="s">
         <v>146</v>
@@ -7797,7 +7796,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="41">
         <v>39022</v>
       </c>
@@ -7823,7 +7822,7 @@
         <v>39037</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="41"/>
       <c r="B184" s="20" t="s">
         <v>123</v>
@@ -7845,7 +7844,7 @@
         <v>39045</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="41"/>
       <c r="B185" s="20" t="s">
         <v>67</v>
@@ -7867,7 +7866,7 @@
         <v>39048</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="41"/>
       <c r="B186" s="20" t="s">
         <v>148</v>
@@ -7887,7 +7886,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="41">
         <v>39052</v>
       </c>
@@ -7913,7 +7912,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="41"/>
       <c r="B188" s="20" t="s">
         <v>149</v>
@@ -7933,7 +7932,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="47" t="s">
         <v>58</v>
       </c>
@@ -7951,7 +7950,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="41">
         <v>39083</v>
       </c>
@@ -7975,7 +7974,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="41">
         <v>39114</v>
       </c>
@@ -8001,7 +8000,7 @@
         <v>39122</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="41"/>
       <c r="B192" s="20" t="s">
         <v>152</v>
@@ -8021,7 +8020,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="48"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="41">
         <v>39142</v>
       </c>
@@ -8047,7 +8046,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="41"/>
       <c r="B194" s="20" t="s">
         <v>154</v>
@@ -8067,7 +8066,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="41">
         <v>39173</v>
       </c>
@@ -8091,7 +8090,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="41">
         <v>39203</v>
       </c>
@@ -8115,7 +8114,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="41"/>
       <c r="B197" s="20" t="s">
         <v>71</v>
@@ -8135,7 +8134,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="41"/>
       <c r="B198" s="20" t="s">
         <v>67</v>
@@ -8157,7 +8156,7 @@
         <v>39227</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41"/>
       <c r="B199" s="20" t="s">
         <v>67</v>
@@ -8179,7 +8178,7 @@
         <v>39231</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="41"/>
       <c r="B200" s="20" t="s">
         <v>156</v>
@@ -8199,7 +8198,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="48"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="41">
         <v>39234</v>
       </c>
@@ -8225,7 +8224,7 @@
         <v>39255</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="41"/>
       <c r="B202" s="20" t="s">
         <v>159</v>
@@ -8245,7 +8244,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="48"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="41">
         <v>39264</v>
       </c>
@@ -8271,7 +8270,7 @@
         <v>39280</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="41"/>
       <c r="B204" s="20" t="s">
         <v>67</v>
@@ -8293,7 +8292,7 @@
         <v>39289</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="41"/>
       <c r="B205" s="20" t="s">
         <v>160</v>
@@ -8313,7 +8312,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="41">
         <v>39295</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>39310</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="41"/>
       <c r="B207" s="20" t="s">
         <v>161</v>
@@ -8359,7 +8358,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="41">
         <v>39326</v>
       </c>
@@ -8385,7 +8384,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="41"/>
       <c r="B209" s="20" t="s">
         <v>162</v>
@@ -8405,7 +8404,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="41">
         <v>39356</v>
       </c>
@@ -8429,7 +8428,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="41">
         <v>39387</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="41"/>
       <c r="B212" s="20" t="s">
         <v>67</v>
@@ -8477,7 +8476,7 @@
         <v>39398</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="41"/>
       <c r="B213" s="20" t="s">
         <v>165</v>
@@ -8497,7 +8496,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="41">
         <v>39417</v>
       </c>
@@ -8521,7 +8520,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="41"/>
       <c r="B215" s="20" t="s">
         <v>168</v>
@@ -8541,7 +8540,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="47" t="s">
         <v>59</v>
       </c>
@@ -8559,7 +8558,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="41">
         <v>39448</v>
       </c>
@@ -8585,7 +8584,7 @@
         <v>39449</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="41"/>
       <c r="B218" s="20" t="s">
         <v>67</v>
@@ -8607,7 +8606,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="41"/>
       <c r="B219" s="20" t="s">
         <v>66</v>
@@ -8629,7 +8628,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="41"/>
       <c r="B220" s="20" t="s">
         <v>169</v>
@@ -8649,7 +8648,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="41">
         <v>39479</v>
       </c>
@@ -8675,7 +8674,7 @@
         <v>39507</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="41"/>
       <c r="B222" s="20" t="s">
         <v>169</v>
@@ -8695,7 +8694,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="41">
         <v>39508</v>
       </c>
@@ -8721,7 +8720,7 @@
         <v>39533</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="41"/>
       <c r="B224" s="20" t="s">
         <v>171</v>
@@ -8741,7 +8740,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="41">
         <v>39539</v>
       </c>
@@ -8765,7 +8764,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="41">
         <v>39569</v>
       </c>
@@ -8789,7 +8788,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="41">
         <v>39600</v>
       </c>
@@ -8813,7 +8812,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="41"/>
       <c r="B228" s="15" t="s">
         <v>67</v>
@@ -8835,7 +8834,7 @@
         <v>39598</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="41"/>
       <c r="B229" s="15" t="s">
         <v>174</v>
@@ -8855,7 +8854,7 @@
       <c r="J229" s="12"/>
       <c r="K229" s="15"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="41">
         <v>39630</v>
       </c>
@@ -8875,7 +8874,7 @@
       <c r="J230" s="12"/>
       <c r="K230" s="15"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="41">
         <v>39661</v>
       </c>
@@ -8901,7 +8900,7 @@
         <v>39681</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="41"/>
       <c r="B232" s="20" t="s">
         <v>104</v>
@@ -8921,7 +8920,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="41">
         <v>39692</v>
       </c>
@@ -8941,7 +8940,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="41">
         <v>39722</v>
       </c>
@@ -8965,7 +8964,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="41">
         <v>39753</v>
       </c>
@@ -8991,7 +8990,7 @@
         <v>39780</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="41"/>
       <c r="B236" s="20" t="s">
         <v>71</v>
@@ -9011,7 +9010,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="41"/>
       <c r="B237" s="20" t="s">
         <v>176</v>
@@ -9033,7 +9032,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="41"/>
       <c r="B238" s="20" t="s">
         <v>71</v>
@@ -9053,7 +9052,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="41">
         <v>39783</v>
       </c>
@@ -9073,7 +9072,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="47" t="s">
         <v>60</v>
       </c>
@@ -9091,7 +9090,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="41">
         <v>39814</v>
       </c>
@@ -9117,7 +9116,7 @@
         <v>39835</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="41">
         <v>39845</v>
       </c>
@@ -9141,7 +9140,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="41">
         <v>39873</v>
       </c>
@@ -9165,7 +9164,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="41">
         <v>39904</v>
       </c>
@@ -9191,7 +9190,7 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="41">
         <v>39934</v>
       </c>
@@ -9217,7 +9216,7 @@
         <v>39962</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="41"/>
       <c r="B246" s="20" t="s">
         <v>71</v>
@@ -9237,7 +9236,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="41"/>
       <c r="B247" s="20" t="s">
         <v>71</v>
@@ -9257,7 +9256,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="41">
         <v>39965</v>
       </c>
@@ -9281,7 +9280,7 @@
         <v>39973</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="41">
         <v>39995</v>
       </c>
@@ -9305,7 +9304,7 @@
         <v>40003</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="41">
         <v>40026</v>
       </c>
@@ -9329,7 +9328,7 @@
         <v>40049</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="41">
         <v>40057</v>
       </c>
@@ -9349,7 +9348,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="41">
         <v>40087</v>
       </c>
@@ -9375,7 +9374,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="41">
         <v>40118</v>
       </c>
@@ -9401,7 +9400,7 @@
         <v>40129</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="41">
         <v>40148</v>
       </c>
@@ -9425,7 +9424,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="47" t="s">
         <v>61</v>
       </c>
@@ -9443,7 +9442,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="41">
         <v>40179</v>
       </c>
@@ -9469,7 +9468,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="41"/>
       <c r="B257" s="20" t="s">
         <v>67</v>
@@ -9491,7 +9490,7 @@
         <v>40206</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="41">
         <v>40210</v>
       </c>
@@ -9517,7 +9516,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="41"/>
       <c r="B259" s="20" t="s">
         <v>135</v>
@@ -9537,7 +9536,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="41">
         <v>40238</v>
       </c>
@@ -9563,7 +9562,7 @@
         <v>40238</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="41"/>
       <c r="B261" s="20" t="s">
         <v>71</v>
@@ -9583,7 +9582,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="41"/>
       <c r="B262" s="20" t="s">
         <v>67</v>
@@ -9605,7 +9604,7 @@
         <v>40241</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="41"/>
       <c r="B263" s="20" t="s">
         <v>67</v>
@@ -9627,7 +9626,7 @@
         <v>40258</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="41"/>
       <c r="B264" s="20" t="s">
         <v>67</v>
@@ -9649,7 +9648,7 @@
         <v>40260</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="41">
         <v>40269</v>
       </c>
@@ -9675,7 +9674,7 @@
         <v>40288</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="41">
         <v>40299</v>
       </c>
@@ -9701,7 +9700,7 @@
         <v>40305</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="41"/>
       <c r="B267" s="20" t="s">
         <v>188</v>
@@ -9721,7 +9720,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="41">
         <v>40330</v>
       </c>
@@ -9747,7 +9746,7 @@
         <v>40332</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="41"/>
       <c r="B269" s="20" t="s">
         <v>189</v>
@@ -9767,7 +9766,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="41">
         <v>40360</v>
       </c>
@@ -9791,7 +9790,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="41">
         <v>40391</v>
       </c>
@@ -9817,7 +9816,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="41"/>
       <c r="B272" s="20" t="s">
         <v>191</v>
@@ -9837,7 +9836,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="41">
         <v>40422</v>
       </c>
@@ -9863,7 +9862,7 @@
         <v>40437</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="41"/>
       <c r="B274" s="20" t="s">
         <v>192</v>
@@ -9883,7 +9882,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="41">
         <v>40452</v>
       </c>
@@ -9909,7 +9908,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="41"/>
       <c r="B276" s="20" t="s">
         <v>67</v>
@@ -9931,7 +9930,7 @@
         <v>40477</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="41"/>
       <c r="B277" s="20" t="s">
         <v>67</v>
@@ -9953,7 +9952,7 @@
         <v>40479</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="41"/>
       <c r="B278" s="20" t="s">
         <v>193</v>
@@ -9973,7 +9972,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="41">
         <v>40483</v>
       </c>
@@ -9999,7 +9998,7 @@
         <v>40491</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="41">
         <v>40513</v>
       </c>
@@ -10023,7 +10022,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="47" t="s">
         <v>62</v>
       </c>
@@ -10041,7 +10040,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="41">
         <v>40544</v>
       </c>
@@ -10067,7 +10066,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="41"/>
       <c r="B283" s="20" t="s">
         <v>67</v>
@@ -10089,7 +10088,7 @@
         <v>40563</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="41"/>
       <c r="B284" s="20" t="s">
         <v>195</v>
@@ -10109,7 +10108,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="41">
         <v>40575</v>
       </c>
@@ -10129,7 +10128,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="41">
         <v>40603</v>
       </c>
@@ -10153,7 +10152,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="41"/>
       <c r="B287" s="20" t="s">
         <v>197</v>
@@ -10173,7 +10172,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="41">
         <v>40634</v>
       </c>
@@ -10199,7 +10198,7 @@
         <v>40648</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="41">
         <v>40664</v>
       </c>
@@ -10225,7 +10224,7 @@
         <v>40665</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="41"/>
       <c r="B290" s="20" t="s">
         <v>67</v>
@@ -10247,7 +10246,7 @@
         <v>40682</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="41"/>
       <c r="B291" s="20" t="s">
         <v>123</v>
@@ -10267,7 +10266,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="41"/>
       <c r="B292" s="20" t="s">
         <v>71</v>
@@ -10287,7 +10286,7 @@
         <v>40700</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="41"/>
       <c r="B293" s="20" t="s">
         <v>71</v>
@@ -10307,7 +10306,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="41">
         <v>40695</v>
       </c>
@@ -10333,7 +10332,7 @@
         <v>40709</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="41"/>
       <c r="B295" s="20" t="s">
         <v>123</v>
@@ -10355,7 +10354,7 @@
         <v>40735</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="41"/>
       <c r="B296" s="20" t="s">
         <v>200</v>
@@ -10375,7 +10374,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="41">
         <v>40725</v>
       </c>
@@ -10401,7 +10400,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="41">
         <v>40756</v>
       </c>
@@ -10425,7 +10424,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="41">
         <v>40787</v>
       </c>
@@ -10449,7 +10448,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="41">
         <v>40817</v>
       </c>
@@ -10475,7 +10474,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="41"/>
       <c r="B301" s="20" t="s">
         <v>67</v>
@@ -10497,7 +10496,7 @@
         <v>40829</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="41"/>
       <c r="B302" s="20" t="s">
         <v>67</v>
@@ -10519,7 +10518,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="41"/>
       <c r="B303" s="20" t="s">
         <v>67</v>
@@ -10541,7 +10540,7 @@
         <v>40844</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="41">
         <v>40848</v>
       </c>
@@ -10565,7 +10564,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="41">
         <v>40878</v>
       </c>
@@ -10591,7 +10590,7 @@
         <v>40904</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="41"/>
       <c r="B306" s="20" t="s">
         <v>131</v>
@@ -10611,7 +10610,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="47" t="s">
         <v>63</v>
       </c>
@@ -10629,7 +10628,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="41">
         <v>40909</v>
       </c>
@@ -10655,7 +10654,7 @@
         <v>40917</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="41"/>
       <c r="B309" s="20" t="s">
         <v>67</v>
@@ -10677,7 +10676,7 @@
         <v>40921</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="41"/>
       <c r="B310" s="20" t="s">
         <v>205</v>
@@ -10697,7 +10696,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="41">
         <v>40940</v>
       </c>
@@ -10723,7 +10722,7 @@
         <v>40953</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="41"/>
       <c r="B312" s="20" t="s">
         <v>67</v>
@@ -10745,7 +10744,7 @@
         <v>40960</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="41">
         <v>40969</v>
       </c>
@@ -10771,7 +10770,7 @@
         <v>40991</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="41">
         <v>41000</v>
       </c>
@@ -10797,7 +10796,7 @@
         <v>41017</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="41">
         <v>41030</v>
       </c>
@@ -10823,7 +10822,7 @@
         <v>41045</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="41"/>
       <c r="B316" s="20" t="s">
         <v>71</v>
@@ -10843,7 +10842,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="41">
         <v>41061</v>
       </c>
@@ -10867,7 +10866,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="41">
         <v>41091</v>
       </c>
@@ -10887,7 +10886,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="41">
         <v>41122</v>
       </c>
@@ -10907,7 +10906,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="41">
         <v>41153</v>
       </c>
@@ -10927,7 +10926,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="41">
         <v>41183</v>
       </c>
@@ -10953,7 +10952,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="41"/>
       <c r="B322" s="20" t="s">
         <v>67</v>
@@ -10975,7 +10974,7 @@
         <v>41207</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="41">
         <v>41214</v>
       </c>
@@ -11001,7 +11000,7 @@
         <v>41229</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="41">
         <v>41244</v>
       </c>
@@ -11027,7 +11026,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="47" t="s">
         <v>64</v>
       </c>
@@ -11045,7 +11044,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="41">
         <v>41275</v>
       </c>
@@ -11069,7 +11068,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="41">
         <v>41306</v>
       </c>
@@ -11089,7 +11088,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="41">
         <v>41334</v>
       </c>
@@ -11109,7 +11108,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="41">
         <v>41365</v>
       </c>
@@ -11133,7 +11132,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="41">
         <v>41395</v>
       </c>
@@ -11159,7 +11158,7 @@
         <v>41397</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="41"/>
       <c r="B331" s="20" t="s">
         <v>67</v>
@@ -11181,7 +11180,7 @@
         <v>41410</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="41"/>
       <c r="B332" s="20" t="s">
         <v>211</v>
@@ -11201,7 +11200,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="41">
         <v>41426</v>
       </c>
@@ -11225,7 +11224,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="41">
         <v>41456</v>
       </c>
@@ -11249,7 +11248,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="41"/>
       <c r="B335" s="20" t="s">
         <v>212</v>
@@ -11269,7 +11268,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="41">
         <v>41487</v>
       </c>
@@ -11295,7 +11294,7 @@
         <v>41499</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="41"/>
       <c r="B337" s="20" t="s">
         <v>214</v>
@@ -11315,7 +11314,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="41">
         <v>41518</v>
       </c>
@@ -11341,7 +11340,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="41"/>
       <c r="B339" s="20" t="s">
         <v>104</v>
@@ -11361,7 +11360,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="41">
         <v>41548</v>
       </c>
@@ -11387,7 +11386,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="41"/>
       <c r="B341" s="20" t="s">
         <v>67</v>
@@ -11409,7 +11408,7 @@
         <v>41558</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="41"/>
       <c r="B342" s="20" t="s">
         <v>67</v>
@@ -11431,7 +11430,7 @@
         <v>41569</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="41"/>
       <c r="B343" s="20" t="s">
         <v>216</v>
@@ -11451,7 +11450,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="41">
         <v>41579</v>
       </c>
@@ -11477,7 +11476,7 @@
         <v>41596</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="41">
         <v>41609</v>
       </c>
@@ -11503,7 +11502,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="41"/>
       <c r="B346" s="20" t="s">
         <v>218</v>
@@ -11523,7 +11522,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="47" t="s">
         <v>65</v>
       </c>
@@ -11541,7 +11540,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="41">
         <v>41640</v>
       </c>
@@ -11567,7 +11566,7 @@
         <v>41648</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="41"/>
       <c r="B349" s="20" t="s">
         <v>220</v>
@@ -11587,7 +11586,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="41">
         <v>41671</v>
       </c>
@@ -11611,7 +11610,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="41">
         <v>41699</v>
       </c>
@@ -11637,7 +11636,7 @@
         <v>41718</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="41"/>
       <c r="B352" s="20" t="s">
         <v>222</v>
@@ -11657,7 +11656,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="48"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="41">
         <v>41730</v>
       </c>
@@ -11681,7 +11680,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="41">
         <v>41760</v>
       </c>
@@ -11705,7 +11704,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="41"/>
       <c r="B355" s="20" t="s">
         <v>71</v>
@@ -11725,7 +11724,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="41"/>
       <c r="B356" s="20" t="s">
         <v>80</v>
@@ -11745,7 +11744,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="41">
         <v>41791</v>
       </c>
@@ -11771,7 +11770,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="41"/>
       <c r="B358" s="20" t="s">
         <v>71</v>
@@ -11791,7 +11790,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="41"/>
       <c r="B359" s="20" t="s">
         <v>104</v>
@@ -11811,7 +11810,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="41">
         <v>41821</v>
       </c>
@@ -11831,7 +11830,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="41">
         <v>41852</v>
       </c>
@@ -11857,7 +11856,7 @@
         <v>41859</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="41"/>
       <c r="B362" s="20" t="s">
         <v>67</v>
@@ -11879,7 +11878,7 @@
         <v>41877</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="41"/>
       <c r="B363" s="20" t="s">
         <v>128</v>
@@ -11899,7 +11898,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="41">
         <v>41883</v>
       </c>
@@ -11923,7 +11922,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="41">
         <v>41913</v>
       </c>
@@ -11949,7 +11948,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="41"/>
       <c r="B366" s="20" t="s">
         <v>66</v>
@@ -11971,7 +11970,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="41"/>
       <c r="B367" s="20" t="s">
         <v>67</v>
@@ -11993,7 +11992,7 @@
         <v>41933</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="41"/>
       <c r="B368" s="20" t="s">
         <v>236</v>
@@ -12013,7 +12012,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="48"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="41">
         <v>41944</v>
       </c>
@@ -12037,7 +12036,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="48"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="41">
         <v>41974</v>
       </c>
@@ -12061,7 +12060,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="48"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="41"/>
       <c r="B371" s="20" t="s">
         <v>104</v>
@@ -12081,7 +12080,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="48"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="47" t="s">
         <v>229</v>
       </c>
@@ -12099,7 +12098,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="48"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="41">
         <v>42005</v>
       </c>
@@ -12125,7 +12124,7 @@
         <v>42013</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="41"/>
       <c r="B374" s="20" t="s">
         <v>67</v>
@@ -12147,7 +12146,7 @@
         <v>42018</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="41">
         <v>42036</v>
       </c>
@@ -12171,7 +12170,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="41">
         <v>42064</v>
       </c>
@@ -12195,7 +12194,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="41"/>
       <c r="B377" s="20" t="s">
         <v>240</v>
@@ -12215,7 +12214,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="41">
         <v>42095</v>
       </c>
@@ -12241,7 +12240,7 @@
         <v>42108</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="41"/>
       <c r="B379" s="20" t="s">
         <v>67</v>
@@ -12263,7 +12262,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="41"/>
       <c r="B380" s="20" t="s">
         <v>241</v>
@@ -12283,7 +12282,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="41">
         <v>42125</v>
       </c>
@@ -12309,7 +12308,7 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="41"/>
       <c r="B382" s="20" t="s">
         <v>129</v>
@@ -12329,7 +12328,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="41">
         <v>42156</v>
       </c>
@@ -12353,7 +12352,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="41"/>
       <c r="B384" s="20" t="s">
         <v>67</v>
@@ -12375,7 +12374,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="41"/>
       <c r="B385" s="20" t="s">
         <v>71</v>
@@ -12395,7 +12394,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="41"/>
       <c r="B386" s="20" t="s">
         <v>237</v>
@@ -12415,7 +12414,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="41">
         <v>42186</v>
       </c>
@@ -12439,7 +12438,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="41">
         <v>42217</v>
       </c>
@@ -12463,7 +12462,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="41">
         <v>42248</v>
       </c>
@@ -12487,7 +12486,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="41">
         <v>42278</v>
       </c>
@@ -12513,7 +12512,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="41"/>
       <c r="B391" s="20" t="s">
         <v>45</v>
@@ -12535,7 +12534,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="41"/>
       <c r="B392" s="20" t="s">
         <v>67</v>
@@ -12557,7 +12556,7 @@
         <v>42284</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="41"/>
       <c r="B393" s="20" t="s">
         <v>66</v>
@@ -12579,7 +12578,7 @@
         <v>42303</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="41"/>
       <c r="B394" s="20" t="s">
         <v>244</v>
@@ -12601,7 +12600,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="41">
         <v>42309</v>
       </c>
@@ -12627,7 +12626,7 @@
         <v>42332</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="41"/>
       <c r="B396" s="20" t="s">
         <v>247</v>
@@ -12647,7 +12646,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="41">
         <v>42339</v>
       </c>
@@ -12671,7 +12670,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="47" t="s">
         <v>230</v>
       </c>
@@ -12689,7 +12688,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="41">
         <v>42370</v>
       </c>
@@ -12713,7 +12712,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="41">
         <v>42401</v>
       </c>
@@ -12737,7 +12736,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="41">
         <v>42430</v>
       </c>
@@ -12763,7 +12762,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="41">
         <v>42461</v>
       </c>
@@ -12787,7 +12786,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="41">
         <v>42491</v>
       </c>
@@ -12813,7 +12812,7 @@
         <v>42501</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="41"/>
       <c r="B404" s="20" t="s">
         <v>250</v>
@@ -12833,7 +12832,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="41">
         <v>42522</v>
       </c>
@@ -12857,7 +12856,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="41"/>
       <c r="B406" s="20" t="s">
         <v>75</v>
@@ -12879,7 +12878,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="41"/>
       <c r="B407" s="20" t="s">
         <v>71</v>
@@ -12899,7 +12898,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="41"/>
       <c r="B408" s="20" t="s">
         <v>251</v>
@@ -12919,7 +12918,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="41">
         <v>42552</v>
       </c>
@@ -12945,7 +12944,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="41"/>
       <c r="B410" s="20" t="s">
         <v>255</v>
@@ -12965,7 +12964,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="48"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="41">
         <v>42583</v>
       </c>
@@ -12991,7 +12990,7 @@
         <v>42601</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="41">
         <v>42614</v>
       </c>
@@ -13015,7 +13014,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="41"/>
       <c r="B413" s="20" t="s">
         <v>256</v>
@@ -13035,7 +13034,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="41">
         <v>42644</v>
       </c>
@@ -13061,7 +13060,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="41"/>
       <c r="B415" s="20" t="s">
         <v>75</v>
@@ -13083,7 +13082,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="41"/>
       <c r="B416" s="20" t="s">
         <v>122</v>
@@ -13105,7 +13104,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="41"/>
       <c r="B417" s="20" t="s">
         <v>66</v>
@@ -13127,7 +13126,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="41"/>
       <c r="B418" s="20" t="s">
         <v>176</v>
@@ -13149,7 +13148,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="41"/>
       <c r="B419" s="20" t="s">
         <v>66</v>
@@ -13171,7 +13170,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="41"/>
       <c r="B420" s="20" t="s">
         <v>129</v>
@@ -13191,7 +13190,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="41">
         <v>42675</v>
       </c>
@@ -13211,7 +13210,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="41">
         <v>42705</v>
       </c>
@@ -13237,7 +13236,7 @@
         <v>42717</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="41"/>
       <c r="B423" s="20" t="s">
         <v>67</v>
@@ -13259,7 +13258,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="41"/>
       <c r="B424" s="20" t="s">
         <v>67</v>
@@ -13281,7 +13280,7 @@
         <v>42733</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="41"/>
       <c r="B425" s="20" t="s">
         <v>227</v>
@@ -13301,7 +13300,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="47" t="s">
         <v>231</v>
       </c>
@@ -13319,7 +13318,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="41">
         <v>42736</v>
       </c>
@@ -13345,7 +13344,7 @@
         <v>42751</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="41"/>
       <c r="B428" s="20" t="s">
         <v>67</v>
@@ -13367,7 +13366,7 @@
         <v>42765</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="41"/>
       <c r="B429" s="20" t="s">
         <v>104</v>
@@ -13387,7 +13386,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="41">
         <v>42767</v>
       </c>
@@ -13413,7 +13412,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="41"/>
       <c r="B431" s="20" t="s">
         <v>264</v>
@@ -13433,7 +13432,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="41">
         <v>42795</v>
       </c>
@@ -13459,7 +13458,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="41"/>
       <c r="B433" s="20" t="s">
         <v>67</v>
@@ -13481,7 +13480,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="41"/>
       <c r="B434" s="20" t="s">
         <v>190</v>
@@ -13501,7 +13500,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="41">
         <v>42826</v>
       </c>
@@ -13527,7 +13526,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>104</v>
@@ -13545,7 +13544,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="41">
         <v>42856</v>
       </c>
@@ -13569,7 +13568,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="41"/>
       <c r="B438" s="20" t="s">
         <v>71</v>
@@ -13589,7 +13588,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="41"/>
       <c r="B439" s="20" t="s">
         <v>240</v>
@@ -13609,7 +13608,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="41">
         <v>42887</v>
       </c>
@@ -13633,7 +13632,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="41">
         <v>42917</v>
       </c>
@@ -13657,7 +13656,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="41"/>
       <c r="B442" s="20" t="s">
         <v>66</v>
@@ -13679,7 +13678,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="41"/>
       <c r="B443" s="20" t="s">
         <v>67</v>
@@ -13701,7 +13700,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="41">
         <v>42948</v>
       </c>
@@ -13725,7 +13724,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="41">
         <v>42979</v>
       </c>
@@ -13751,7 +13750,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="41"/>
       <c r="B446" s="20" t="s">
         <v>135</v>
@@ -13771,7 +13770,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="48"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="41">
         <v>43009</v>
       </c>
@@ -13797,7 +13796,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="41"/>
       <c r="B448" s="20" t="s">
         <v>45</v>
@@ -13819,7 +13818,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="41">
         <v>43040</v>
       </c>
@@ -13845,7 +13844,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="41">
         <v>43070</v>
       </c>
@@ -13869,7 +13868,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="41"/>
       <c r="B451" s="20" t="s">
         <v>48</v>
@@ -13891,7 +13890,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="47" t="s">
         <v>232</v>
       </c>
@@ -13909,7 +13908,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="41">
         <v>43101</v>
       </c>
@@ -13935,7 +13934,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="41"/>
       <c r="B454" s="20" t="s">
         <v>67</v>
@@ -13957,7 +13956,7 @@
         <v>43109</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="41">
         <v>43132</v>
       </c>
@@ -13983,7 +13982,7 @@
         <v>43136</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="41">
         <v>43160</v>
       </c>
@@ -14009,7 +14008,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="41">
         <v>43191</v>
       </c>
@@ -14035,7 +14034,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="41"/>
       <c r="B458" s="20" t="s">
         <v>274</v>
@@ -14057,7 +14056,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="41"/>
       <c r="B459" s="20" t="s">
         <v>275</v>
@@ -14079,7 +14078,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="41">
         <v>43221</v>
       </c>
@@ -14105,7 +14104,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="41"/>
       <c r="B461" s="20" t="s">
         <v>66</v>
@@ -14127,7 +14126,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="41"/>
       <c r="B462" s="20" t="s">
         <v>71</v>
@@ -14147,7 +14146,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="41"/>
       <c r="B463" s="20" t="s">
         <v>67</v>
@@ -14169,7 +14168,7 @@
         <v>43279</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="41">
         <v>43252</v>
       </c>
@@ -14193,7 +14192,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="41">
         <v>43282</v>
       </c>
@@ -14219,7 +14218,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="41">
         <v>43313</v>
       </c>
@@ -14245,7 +14244,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="41">
         <v>43344</v>
       </c>
@@ -14271,7 +14270,7 @@
         <v>43354</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="41"/>
       <c r="B468" s="20" t="s">
         <v>67</v>
@@ -14293,7 +14292,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="41">
         <v>43374</v>
       </c>
@@ -14319,7 +14318,7 @@
         <v>43375</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="41"/>
       <c r="B470" s="20" t="s">
         <v>67</v>
@@ -14341,7 +14340,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="41"/>
       <c r="B471" s="20" t="s">
         <v>45</v>
@@ -14363,7 +14362,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="41"/>
       <c r="B472" s="20" t="s">
         <v>66</v>
@@ -14385,7 +14384,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="41">
         <v>43405</v>
       </c>
@@ -14411,7 +14410,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="41">
         <v>43435</v>
       </c>
@@ -14437,7 +14436,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="47" t="s">
         <v>233</v>
       </c>
@@ -14455,7 +14454,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="41">
         <v>43466</v>
       </c>
@@ -14481,7 +14480,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="41">
         <v>43497</v>
       </c>
@@ -14507,7 +14506,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="41"/>
       <c r="B478" s="20" t="s">
         <v>67</v>
@@ -14529,7 +14528,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="41">
         <v>43525</v>
       </c>
@@ -14549,7 +14548,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="41">
         <v>43556</v>
       </c>
@@ -14569,7 +14568,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="41">
         <v>43586</v>
       </c>
@@ -14595,7 +14594,7 @@
         <v>43600</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="41">
         <v>43617</v>
       </c>
@@ -14619,7 +14618,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="41"/>
       <c r="B483" s="20" t="s">
         <v>71</v>
@@ -14639,7 +14638,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="41">
         <v>43647</v>
       </c>
@@ -14665,7 +14664,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="41">
         <v>43678</v>
       </c>
@@ -14691,7 +14690,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="41">
         <v>43709</v>
       </c>
@@ -14717,7 +14716,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="41">
         <v>43739</v>
       </c>
@@ -14743,7 +14742,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="41"/>
       <c r="B488" s="20" t="s">
         <v>67</v>
@@ -14765,7 +14764,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="41"/>
       <c r="B489" s="20" t="s">
         <v>67</v>
@@ -14787,7 +14786,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="41">
         <v>43770</v>
       </c>
@@ -14807,7 +14806,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="41">
         <v>43800</v>
       </c>
@@ -14833,7 +14832,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="41"/>
       <c r="B492" s="20" t="s">
         <v>48</v>
@@ -14855,7 +14854,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="41"/>
       <c r="B493" s="20" t="s">
         <v>67</v>
@@ -14877,7 +14876,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="41"/>
       <c r="B494" s="20" t="s">
         <v>71</v>
@@ -14897,7 +14896,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="47" t="s">
         <v>234</v>
       </c>
@@ -14915,7 +14914,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="41">
         <v>43831</v>
       </c>
@@ -14939,7 +14938,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="41"/>
       <c r="B497" s="20" t="s">
         <v>67</v>
@@ -14959,7 +14958,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="41">
         <v>43862</v>
       </c>
@@ -14979,7 +14978,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="41">
         <v>43891</v>
       </c>
@@ -15005,7 +15004,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="41">
         <v>43922</v>
       </c>
@@ -15025,7 +15024,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="41">
         <v>43952</v>
       </c>
@@ -15045,7 +15044,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="41">
         <v>43983</v>
       </c>
@@ -15071,7 +15070,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="41"/>
       <c r="B503" s="20" t="s">
         <v>71</v>
@@ -15091,7 +15090,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="41">
         <v>44013</v>
       </c>
@@ -15111,7 +15110,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="41">
         <v>44044</v>
       </c>
@@ -15137,7 +15136,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="41">
         <v>44075</v>
       </c>
@@ -15157,7 +15156,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="41">
         <v>44105</v>
       </c>
@@ -15183,7 +15182,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="41"/>
       <c r="B508" s="20" t="s">
         <v>67</v>
@@ -15205,7 +15204,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="41">
         <v>44136</v>
       </c>
@@ -15225,7 +15224,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="41">
         <v>44166</v>
       </c>
@@ -15251,7 +15250,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="47" t="s">
         <v>295</v>
       </c>
@@ -15269,7 +15268,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="41">
         <v>44197</v>
       </c>
@@ -15289,7 +15288,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="41">
         <v>44228</v>
       </c>
@@ -15309,7 +15308,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="41">
         <v>44256</v>
       </c>
@@ -15329,7 +15328,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="41">
         <v>44287</v>
       </c>
@@ -15349,7 +15348,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="41">
         <v>44317</v>
       </c>
@@ -15369,7 +15368,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="41">
         <v>44348</v>
       </c>
@@ -15389,7 +15388,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="41">
         <v>44378</v>
       </c>
@@ -15409,7 +15408,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="41">
         <v>44409</v>
       </c>
@@ -15429,7 +15428,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="41">
         <v>44440</v>
       </c>
@@ -15449,7 +15448,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="41">
         <v>44470</v>
       </c>
@@ -15475,7 +15474,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="41">
         <v>44501</v>
       </c>
@@ -15495,7 +15494,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="41">
         <v>44531</v>
       </c>
@@ -15521,7 +15520,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="47" t="s">
         <v>300</v>
       </c>
@@ -15539,7 +15538,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="41">
         <v>44562</v>
       </c>
@@ -15559,7 +15558,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="41">
         <v>44593</v>
       </c>
@@ -15579,7 +15578,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="41">
         <v>44621</v>
       </c>
@@ -15605,7 +15604,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="41">
         <v>44652</v>
       </c>
@@ -15625,7 +15624,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="41">
         <v>44682</v>
       </c>
@@ -15651,7 +15650,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="41"/>
       <c r="B530" s="20" t="s">
         <v>71</v>
@@ -15671,7 +15670,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="41">
         <v>44713</v>
       </c>
@@ -15691,7 +15690,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="41">
         <v>44743</v>
       </c>
@@ -15715,7 +15714,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="41"/>
       <c r="B533" s="20" t="s">
         <v>67</v>
@@ -15737,7 +15736,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="41"/>
       <c r="B534" s="20" t="s">
         <v>67</v>
@@ -15759,7 +15758,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44774</v>
       </c>
@@ -15785,7 +15784,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <f>EDATE(A535,1)</f>
         <v>44805</v>
@@ -15812,7 +15811,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <f t="shared" ref="A537:A547" si="0">EDATE(A536,1)</f>
         <v>44835</v>
@@ -15839,7 +15838,7 @@
         <v>44844</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>48</v>
@@ -15861,7 +15860,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <f>EDATE(A537,1)</f>
         <v>44866</v>
@@ -15888,7 +15887,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <f t="shared" si="0"/>
         <v>44896</v>
@@ -15915,7 +15914,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>71</v>
@@ -15935,7 +15934,7 @@
         <v>44901</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="52" t="s">
         <v>304</v>
       </c>
@@ -15953,7 +15952,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <f>EDATE(A540,1)</f>
         <v>44927</v>
@@ -15980,7 +15979,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="15" t="s">
         <v>67</v>
@@ -16002,7 +16001,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <f>EDATE(A543,1)</f>
         <v>44958</v>
@@ -16029,7 +16028,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f t="shared" si="0"/>
         <v>44986</v>
@@ -16050,7 +16049,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <f t="shared" si="0"/>
         <v>45017</v>
@@ -16058,13 +16057,15 @@
       <c r="B547" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C547" s="13"/>
+      <c r="C547" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D547" s="39"/>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
-      <c r="G547" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G547" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H547" s="39">
         <v>1</v>
@@ -16075,7 +16076,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>67</v>
@@ -16097,12 +16098,14 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <f>EDATE(A547,1)</f>
         <v>45047</v>
       </c>
-      <c r="B549" s="20"/>
+      <c r="B549" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C549" s="13"/>
       <c r="D549" s="39"/>
       <c r="E549" s="9"/>
@@ -16111,12 +16114,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H549" s="39"/>
+      <c r="H549" s="39">
+        <v>1</v>
+      </c>
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
-      <c r="K549" s="20"/>
-    </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K549" s="48">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16132,7 +16139,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16148,7 +16155,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16164,7 +16171,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16180,7 +16187,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16196,7 +16203,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16212,7 +16219,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16228,7 +16235,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16244,7 +16251,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16260,7 +16267,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16276,7 +16283,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16292,7 +16299,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16308,7 +16315,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16324,7 +16331,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16340,7 +16347,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16356,7 +16363,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16372,7 +16379,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16388,7 +16395,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16404,7 +16411,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16420,7 +16427,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16436,7 +16443,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16452,7 +16459,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16468,7 +16475,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16484,7 +16491,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16500,7 +16507,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16516,7 +16523,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16532,7 +16539,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16548,7 +16555,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16564,7 +16571,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16580,7 +16587,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16596,7 +16603,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16612,7 +16619,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16628,7 +16635,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16644,7 +16651,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="41"/>
       <c r="B583" s="15"/>
       <c r="C583" s="42"/>
@@ -16675,10 +16682,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16701,7 +16708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16709,21 +16716,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16736,7 +16743,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16765,7 +16772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>39.625</v>
       </c>
@@ -16791,17 +16798,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16822,7 +16829,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16849,7 +16856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16875,7 +16882,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16901,7 +16908,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16927,7 +16934,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16953,7 +16960,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16979,7 +16986,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17005,7 +17012,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17031,7 +17038,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17051,7 +17058,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17071,7 +17078,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17091,7 +17098,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17112,7 +17119,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17133,7 +17140,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17154,7 +17161,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17175,7 +17182,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17196,7 +17203,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17217,7 +17224,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17238,7 +17245,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17259,7 +17266,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17280,7 +17287,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17301,7 +17308,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17322,7 +17329,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17343,7 +17350,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17364,7 +17371,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17385,7 +17392,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17406,7 +17413,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17427,7 +17434,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17448,7 +17455,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17469,7 +17476,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17490,7 +17497,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17511,7 +17518,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17520,7 +17527,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17529,7 +17536,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17538,7 +17545,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17547,7 +17554,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17556,7 +17563,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17565,7 +17572,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17574,7 +17581,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17583,7 +17590,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17592,7 +17599,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17601,7 +17608,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17610,7 +17617,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17619,7 +17626,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17628,7 +17635,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17637,7 +17644,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17646,7 +17653,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17655,7 +17662,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17664,7 +17671,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17673,7 +17680,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17682,7 +17689,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17691,7 +17698,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17700,7 +17707,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17709,7 +17716,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17718,7 +17725,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17727,7 +17734,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17736,7 +17743,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17745,7 +17752,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17754,7 +17761,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17763,7 +17770,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17772,7 +17779,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ANGCAYA, RUFINA.xlsx
+++ b/REGULAR/ANGCAYA, RUFINA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63B1AE4-7430-46D3-83F8-804E9A26A57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="308">
   <si>
     <t>PERIOD</t>
   </si>
@@ -963,7 +964,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1830,7 +1831,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1874,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,7 +1938,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +1998,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2064,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,7 +2127,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2225,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2284,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2349,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,7 +2392,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2467,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2653,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2718,7 +2719,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,7 +2777,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2843,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2898,7 +2899,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2973,7 +2974,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +3017,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3082,7 +3083,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3138,7 +3139,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3236,7 +3237,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3299,7 +3300,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3348,7 +3349,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3365,25 +3366,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K583" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K583" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3395,13 +3396,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3410,14 +3411,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3721,7 +3722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3731,7 +3732,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3739,34 +3740,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K583"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A538" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A549" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B550" sqref="B550"/>
+      <selection pane="bottomLeft" activeCell="B552" sqref="B552"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3787,7 +3788,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3805,7 +3806,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3827,7 +3828,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3835,7 +3836,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3848,7 +3849,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3865,7 +3866,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3909,7 +3910,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>181.33700000000005</v>
+        <v>182.58700000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3919,12 +3920,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>185.625</v>
+        <v>185.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
         <v>35977</v>
       </c>
@@ -3948,7 +3949,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36008</v>
       </c>
@@ -3968,7 +3969,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>36039</v>
       </c>
@@ -3988,7 +3989,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>36069</v>
       </c>
@@ -4008,7 +4009,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36100</v>
       </c>
@@ -4034,7 +4035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>46</v>
@@ -4054,7 +4055,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>36130</v>
       </c>
@@ -4080,7 +4081,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>50</v>
       </c>
@@ -4098,7 +4099,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>36161</v>
       </c>
@@ -4124,7 +4125,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>36192</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>36207</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>36220</v>
       </c>
@@ -4170,7 +4171,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>36251</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>36258</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
       <c r="B22" s="20" t="s">
         <v>69</v>
@@ -4216,7 +4217,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <v>36281</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>36312</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>36342</v>
       </c>
@@ -4292,7 +4293,7 @@
         <v>36361</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41"/>
       <c r="B26" s="20" t="s">
         <v>71</v>
@@ -4312,7 +4313,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>36373</v>
       </c>
@@ -4332,7 +4333,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>36404</v>
       </c>
@@ -4352,7 +4353,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>36434</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>36465</v>
       </c>
@@ -4404,7 +4405,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>36495</v>
       </c>
@@ -4424,7 +4425,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>51</v>
       </c>
@@ -4442,7 +4443,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>36526</v>
       </c>
@@ -4468,7 +4469,7 @@
         <v>36532</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>79</v>
@@ -4490,7 +4491,7 @@
         <v>36537</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>36557</v>
       </c>
@@ -4514,7 +4515,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <v>36586</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>36617</v>
       </c>
@@ -4558,7 +4559,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>36647</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>36671</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41"/>
       <c r="B39" s="20" t="s">
         <v>71</v>
@@ -4604,7 +4605,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
       <c r="B40" s="20" t="s">
         <v>71</v>
@@ -4624,7 +4625,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>36678</v>
       </c>
@@ -4650,7 +4651,7 @@
         <v>36703</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>36708</v>
       </c>
@@ -4670,7 +4671,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>36739</v>
       </c>
@@ -4690,7 +4691,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>36770</v>
       </c>
@@ -4716,7 +4717,7 @@
         <v>36797</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>36800</v>
       </c>
@@ -4736,7 +4737,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>36831</v>
       </c>
@@ -4762,7 +4763,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>36861</v>
       </c>
@@ -4782,7 +4783,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
         <v>52</v>
       </c>
@@ -4800,7 +4801,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="41">
         <v>36892</v>
       </c>
@@ -4820,7 +4821,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>36923</v>
       </c>
@@ -4840,7 +4841,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>36951</v>
       </c>
@@ -4860,7 +4861,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>36982</v>
       </c>
@@ -4884,7 +4885,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>37012</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>37043</v>
       </c>
@@ -4928,7 +4929,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>37073</v>
       </c>
@@ -4948,7 +4949,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>37104</v>
       </c>
@@ -4968,7 +4969,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>37135</v>
       </c>
@@ -4988,7 +4989,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>37165</v>
       </c>
@@ -5008,7 +5009,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>37196</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41"/>
       <c r="B60" s="20" t="s">
         <v>48</v>
@@ -5056,7 +5057,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>37226</v>
       </c>
@@ -5076,7 +5077,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>53</v>
       </c>
@@ -5094,7 +5095,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>37257</v>
       </c>
@@ -5114,7 +5115,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>37288</v>
       </c>
@@ -5134,7 +5135,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>37316</v>
       </c>
@@ -5154,7 +5155,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>37347</v>
       </c>
@@ -5180,7 +5181,7 @@
         <v>37356</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>37377</v>
       </c>
@@ -5206,7 +5207,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="20" t="s">
         <v>71</v>
@@ -5226,7 +5227,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="20" t="s">
         <v>71</v>
@@ -5246,7 +5247,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>37408</v>
       </c>
@@ -5266,7 +5267,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>37438</v>
       </c>
@@ -5292,7 +5293,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
         <v>37469</v>
       </c>
@@ -5318,7 +5319,7 @@
         <v>37489</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41"/>
       <c r="B73" s="20" t="s">
         <v>71</v>
@@ -5338,7 +5339,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>37500</v>
       </c>
@@ -5358,7 +5359,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="41">
         <v>37530</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>37532</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="20" t="s">
         <v>67</v>
@@ -5406,7 +5407,7 @@
         <v>37537</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41"/>
       <c r="B77" s="20" t="s">
         <v>67</v>
@@ -5428,7 +5429,7 @@
         <v>37554</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41">
         <v>37561</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
       <c r="B79" s="20" t="s">
         <v>48</v>
@@ -5476,7 +5477,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
         <v>37591</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>37602</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
         <v>54</v>
       </c>
@@ -5520,7 +5521,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
         <v>37622</v>
       </c>
@@ -5546,7 +5547,7 @@
         <v>37641</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41">
         <v>37653</v>
       </c>
@@ -5572,7 +5573,7 @@
         <v>37658</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
       <c r="B84" s="20" t="s">
         <v>66</v>
@@ -5594,7 +5595,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41">
         <v>37681</v>
       </c>
@@ -5620,7 +5621,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41">
         <v>37712</v>
       </c>
@@ -5640,7 +5641,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41">
         <v>37742</v>
       </c>
@@ -5666,7 +5667,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="20" t="s">
         <v>71</v>
@@ -5686,7 +5687,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="20" t="s">
         <v>71</v>
@@ -5706,7 +5707,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="20" t="s">
         <v>71</v>
@@ -5726,7 +5727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41">
         <v>37773</v>
       </c>
@@ -5746,7 +5747,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41">
         <v>37803</v>
       </c>
@@ -5766,7 +5767,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41">
         <v>37834</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41">
         <v>37865</v>
       </c>
@@ -5816,7 +5817,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41">
         <v>37895</v>
       </c>
@@ -5842,7 +5843,7 @@
         <v>37922</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41"/>
       <c r="B96" s="20" t="s">
         <v>67</v>
@@ -5864,7 +5865,7 @@
         <v>37918</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="20" t="s">
         <v>67</v>
@@ -5886,7 +5887,7 @@
         <v>37924</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41"/>
       <c r="B98" s="20" t="s">
         <v>104</v>
@@ -5906,7 +5907,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41">
         <v>37926</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>37936</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="20" t="s">
         <v>48</v>
@@ -5954,7 +5955,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
       <c r="B101" s="20" t="s">
         <v>67</v>
@@ -5976,7 +5977,7 @@
         <v>37956</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
       <c r="B102" s="20" t="s">
         <v>105</v>
@@ -5996,7 +5997,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41">
         <v>37956</v>
       </c>
@@ -6016,7 +6017,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="47" t="s">
         <v>55</v>
       </c>
@@ -6034,7 +6035,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41">
         <v>37987</v>
       </c>
@@ -6060,7 +6061,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41"/>
       <c r="B106" s="20" t="s">
         <v>104</v>
@@ -6080,7 +6081,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41">
         <v>38018</v>
       </c>
@@ -6100,7 +6101,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41">
         <v>38047</v>
       </c>
@@ -6124,7 +6125,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41">
         <v>38078</v>
       </c>
@@ -6150,7 +6151,7 @@
         <v>38089</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41"/>
       <c r="B110" s="20" t="s">
         <v>66</v>
@@ -6172,7 +6173,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41">
         <v>38108</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>38118</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41"/>
       <c r="B112" s="20" t="s">
         <v>67</v>
@@ -6220,7 +6221,7 @@
         <v>38135</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>108</v>
@@ -6240,7 +6241,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41">
         <v>38139</v>
       </c>
@@ -6260,7 +6261,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41">
         <v>38169</v>
       </c>
@@ -6286,7 +6287,7 @@
         <v>38170</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41"/>
       <c r="B116" s="20" t="s">
         <v>73</v>
@@ -6308,7 +6309,7 @@
         <v>38195</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41"/>
       <c r="B117" s="20" t="s">
         <v>48</v>
@@ -6330,7 +6331,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41"/>
       <c r="B118" s="20" t="s">
         <v>113</v>
@@ -6350,7 +6351,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="41">
         <v>38200</v>
       </c>
@@ -6376,7 +6377,7 @@
         <v>38203</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="41"/>
       <c r="B120" s="20" t="s">
         <v>66</v>
@@ -6398,7 +6399,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41">
         <v>38231</v>
       </c>
@@ -6418,7 +6419,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="41">
         <v>38261</v>
       </c>
@@ -6444,7 +6445,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
       <c r="B123" s="20" t="s">
         <v>104</v>
@@ -6464,7 +6465,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
       <c r="B124" s="20" t="s">
         <v>66</v>
@@ -6486,7 +6487,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41">
         <v>38292</v>
       </c>
@@ -6512,7 +6513,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="41">
         <v>38322</v>
       </c>
@@ -6536,7 +6537,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="47" t="s">
         <v>56</v>
       </c>
@@ -6554,7 +6555,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="41">
         <v>38353</v>
       </c>
@@ -6580,7 +6581,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="41"/>
       <c r="B129" s="20" t="s">
         <v>66</v>
@@ -6602,7 +6603,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="20" t="s">
         <v>67</v>
@@ -6624,7 +6625,7 @@
         <v>38378</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41">
         <v>38384</v>
       </c>
@@ -6644,7 +6645,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41">
         <v>38412</v>
       </c>
@@ -6670,7 +6671,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="20" t="s">
         <v>123</v>
@@ -6692,7 +6693,7 @@
         <v>38439</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="20" t="s">
         <v>125</v>
@@ -6712,7 +6713,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="48"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41">
         <v>38443</v>
       </c>
@@ -6738,7 +6739,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41"/>
       <c r="B136" s="20" t="s">
         <v>75</v>
@@ -6758,7 +6759,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41">
         <v>38473</v>
       </c>
@@ -6784,7 +6785,7 @@
         <v>38477</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41"/>
       <c r="B138" s="20" t="s">
         <v>67</v>
@@ -6806,7 +6807,7 @@
         <v>38497</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="41"/>
       <c r="B139" s="20" t="s">
         <v>108</v>
@@ -6826,7 +6827,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="41"/>
       <c r="B140" s="20" t="s">
         <v>73</v>
@@ -6848,7 +6849,7 @@
         <v>38512</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="41">
         <v>38504</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>38544</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="41"/>
       <c r="B142" s="20" t="s">
         <v>128</v>
@@ -6894,7 +6895,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="48"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="41">
         <v>38534</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>38562</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="41">
         <v>38565</v>
       </c>
@@ -6944,7 +6945,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="41">
         <v>38596</v>
       </c>
@@ -6970,7 +6971,7 @@
         <v>38601</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="41"/>
       <c r="B146" s="20" t="s">
         <v>122</v>
@@ -6992,7 +6993,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="41"/>
       <c r="B147" s="20" t="s">
         <v>131</v>
@@ -7012,7 +7013,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="41">
         <v>38626</v>
       </c>
@@ -7036,7 +7037,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="41">
         <v>38657</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="41"/>
       <c r="B150" s="20" t="s">
         <v>67</v>
@@ -7084,7 +7085,7 @@
         <v>38667</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="41"/>
       <c r="B151" s="20" t="s">
         <v>133</v>
@@ -7104,7 +7105,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="41">
         <v>38687</v>
       </c>
@@ -7128,7 +7129,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="47" t="s">
         <v>57</v>
       </c>
@@ -7146,7 +7147,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="41">
         <v>38718</v>
       </c>
@@ -7172,7 +7173,7 @@
         <v>38737</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="41"/>
       <c r="B155" s="20" t="s">
         <v>136</v>
@@ -7192,7 +7193,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="41">
         <v>38749</v>
       </c>
@@ -7218,7 +7219,7 @@
         <v>38754</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41"/>
       <c r="B157" s="20" t="s">
         <v>104</v>
@@ -7238,7 +7239,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="41">
         <v>38777</v>
       </c>
@@ -7262,7 +7263,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="41"/>
       <c r="B159" s="20" t="s">
         <v>122</v>
@@ -7284,7 +7285,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="41"/>
       <c r="B160" s="20" t="s">
         <v>66</v>
@@ -7306,7 +7307,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="41">
         <v>38808</v>
       </c>
@@ -7332,7 +7333,7 @@
         <v>38819</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="41"/>
       <c r="B162" s="20" t="s">
         <v>67</v>
@@ -7354,7 +7355,7 @@
         <v>38852</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="41"/>
       <c r="B163" s="20" t="s">
         <v>71</v>
@@ -7374,7 +7375,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="41"/>
       <c r="B164" s="20" t="s">
         <v>67</v>
@@ -7396,7 +7397,7 @@
         <v>38863</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41"/>
       <c r="B165" s="20" t="s">
         <v>137</v>
@@ -7416,7 +7417,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="41">
         <v>38838</v>
       </c>
@@ -7436,7 +7437,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="41">
         <v>38869</v>
       </c>
@@ -7460,7 +7461,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="41"/>
       <c r="B168" s="20" t="s">
         <v>105</v>
@@ -7480,7 +7481,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="41">
         <v>38899</v>
       </c>
@@ -7506,7 +7507,7 @@
         <v>38919</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="41"/>
       <c r="B170" s="20" t="s">
         <v>105</v>
@@ -7526,7 +7527,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="41">
         <v>38930</v>
       </c>
@@ -7552,7 +7553,7 @@
         <v>38933</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="41"/>
       <c r="B172" s="20" t="s">
         <v>66</v>
@@ -7574,7 +7575,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="41"/>
       <c r="B173" s="20" t="s">
         <v>144</v>
@@ -7594,7 +7595,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="48"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41">
         <v>38961</v>
       </c>
@@ -7620,7 +7621,7 @@
         <v>38967</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="41"/>
       <c r="B175" s="20" t="s">
         <v>67</v>
@@ -7642,7 +7643,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="41"/>
       <c r="B176" s="20" t="s">
         <v>67</v>
@@ -7664,7 +7665,7 @@
         <v>38989</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="41"/>
       <c r="B177" s="20" t="s">
         <v>145</v>
@@ -7684,7 +7685,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="41">
         <v>38991</v>
       </c>
@@ -7710,7 +7711,7 @@
         <v>38995</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="41"/>
       <c r="B179" s="20" t="s">
         <v>122</v>
@@ -7732,7 +7733,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="41"/>
       <c r="B180" s="20" t="s">
         <v>123</v>
@@ -7754,7 +7755,7 @@
         <v>39016</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="41"/>
       <c r="B181" s="20" t="s">
         <v>67</v>
@@ -7776,7 +7777,7 @@
         <v>39017</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="41"/>
       <c r="B182" s="20" t="s">
         <v>146</v>
@@ -7796,7 +7797,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="41">
         <v>39022</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>39037</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="41"/>
       <c r="B184" s="20" t="s">
         <v>123</v>
@@ -7844,7 +7845,7 @@
         <v>39045</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="41"/>
       <c r="B185" s="20" t="s">
         <v>67</v>
@@ -7866,7 +7867,7 @@
         <v>39048</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="41"/>
       <c r="B186" s="20" t="s">
         <v>148</v>
@@ -7886,7 +7887,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="41">
         <v>39052</v>
       </c>
@@ -7912,7 +7913,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="41"/>
       <c r="B188" s="20" t="s">
         <v>149</v>
@@ -7932,7 +7933,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="47" t="s">
         <v>58</v>
       </c>
@@ -7950,7 +7951,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="41">
         <v>39083</v>
       </c>
@@ -7974,7 +7975,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="41">
         <v>39114</v>
       </c>
@@ -8000,7 +8001,7 @@
         <v>39122</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="41"/>
       <c r="B192" s="20" t="s">
         <v>152</v>
@@ -8020,7 +8021,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="48"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="41">
         <v>39142</v>
       </c>
@@ -8046,7 +8047,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="41"/>
       <c r="B194" s="20" t="s">
         <v>154</v>
@@ -8066,7 +8067,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="41">
         <v>39173</v>
       </c>
@@ -8090,7 +8091,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="41">
         <v>39203</v>
       </c>
@@ -8114,7 +8115,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="41"/>
       <c r="B197" s="20" t="s">
         <v>71</v>
@@ -8134,7 +8135,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="41"/>
       <c r="B198" s="20" t="s">
         <v>67</v>
@@ -8156,7 +8157,7 @@
         <v>39227</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41"/>
       <c r="B199" s="20" t="s">
         <v>67</v>
@@ -8178,7 +8179,7 @@
         <v>39231</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="41"/>
       <c r="B200" s="20" t="s">
         <v>156</v>
@@ -8198,7 +8199,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="48"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="41">
         <v>39234</v>
       </c>
@@ -8224,7 +8225,7 @@
         <v>39255</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="41"/>
       <c r="B202" s="20" t="s">
         <v>159</v>
@@ -8244,7 +8245,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="48"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="41">
         <v>39264</v>
       </c>
@@ -8270,7 +8271,7 @@
         <v>39280</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="41"/>
       <c r="B204" s="20" t="s">
         <v>67</v>
@@ -8292,7 +8293,7 @@
         <v>39289</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="41"/>
       <c r="B205" s="20" t="s">
         <v>160</v>
@@ -8312,7 +8313,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="41">
         <v>39295</v>
       </c>
@@ -8338,7 +8339,7 @@
         <v>39310</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="41"/>
       <c r="B207" s="20" t="s">
         <v>161</v>
@@ -8358,7 +8359,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="41">
         <v>39326</v>
       </c>
@@ -8384,7 +8385,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="41"/>
       <c r="B209" s="20" t="s">
         <v>162</v>
@@ -8404,7 +8405,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="41">
         <v>39356</v>
       </c>
@@ -8428,7 +8429,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="41">
         <v>39387</v>
       </c>
@@ -8454,7 +8455,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="41"/>
       <c r="B212" s="20" t="s">
         <v>67</v>
@@ -8476,7 +8477,7 @@
         <v>39398</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="41"/>
       <c r="B213" s="20" t="s">
         <v>165</v>
@@ -8496,7 +8497,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="41">
         <v>39417</v>
       </c>
@@ -8520,7 +8521,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="41"/>
       <c r="B215" s="20" t="s">
         <v>168</v>
@@ -8540,7 +8541,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="47" t="s">
         <v>59</v>
       </c>
@@ -8558,7 +8559,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="41">
         <v>39448</v>
       </c>
@@ -8584,7 +8585,7 @@
         <v>39449</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="41"/>
       <c r="B218" s="20" t="s">
         <v>67</v>
@@ -8606,7 +8607,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="41"/>
       <c r="B219" s="20" t="s">
         <v>66</v>
@@ -8628,7 +8629,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="41"/>
       <c r="B220" s="20" t="s">
         <v>169</v>
@@ -8648,7 +8649,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="41">
         <v>39479</v>
       </c>
@@ -8674,7 +8675,7 @@
         <v>39507</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="41"/>
       <c r="B222" s="20" t="s">
         <v>169</v>
@@ -8694,7 +8695,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="41">
         <v>39508</v>
       </c>
@@ -8720,7 +8721,7 @@
         <v>39533</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="41"/>
       <c r="B224" s="20" t="s">
         <v>171</v>
@@ -8740,7 +8741,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="41">
         <v>39539</v>
       </c>
@@ -8764,7 +8765,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="41">
         <v>39569</v>
       </c>
@@ -8788,7 +8789,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="41">
         <v>39600</v>
       </c>
@@ -8812,7 +8813,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="41"/>
       <c r="B228" s="15" t="s">
         <v>67</v>
@@ -8834,7 +8835,7 @@
         <v>39598</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="41"/>
       <c r="B229" s="15" t="s">
         <v>174</v>
@@ -8854,7 +8855,7 @@
       <c r="J229" s="12"/>
       <c r="K229" s="15"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="41">
         <v>39630</v>
       </c>
@@ -8874,7 +8875,7 @@
       <c r="J230" s="12"/>
       <c r="K230" s="15"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="41">
         <v>39661</v>
       </c>
@@ -8900,7 +8901,7 @@
         <v>39681</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="41"/>
       <c r="B232" s="20" t="s">
         <v>104</v>
@@ -8920,7 +8921,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="41">
         <v>39692</v>
       </c>
@@ -8940,7 +8941,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="41">
         <v>39722</v>
       </c>
@@ -8964,7 +8965,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="41">
         <v>39753</v>
       </c>
@@ -8990,7 +8991,7 @@
         <v>39780</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="41"/>
       <c r="B236" s="20" t="s">
         <v>71</v>
@@ -9010,7 +9011,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="41"/>
       <c r="B237" s="20" t="s">
         <v>176</v>
@@ -9032,7 +9033,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="41"/>
       <c r="B238" s="20" t="s">
         <v>71</v>
@@ -9052,7 +9053,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="41">
         <v>39783</v>
       </c>
@@ -9072,7 +9073,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="47" t="s">
         <v>60</v>
       </c>
@@ -9090,7 +9091,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="41">
         <v>39814</v>
       </c>
@@ -9116,7 +9117,7 @@
         <v>39835</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="41">
         <v>39845</v>
       </c>
@@ -9140,7 +9141,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="41">
         <v>39873</v>
       </c>
@@ -9164,7 +9165,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="41">
         <v>39904</v>
       </c>
@@ -9190,7 +9191,7 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="41">
         <v>39934</v>
       </c>
@@ -9216,7 +9217,7 @@
         <v>39962</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="41"/>
       <c r="B246" s="20" t="s">
         <v>71</v>
@@ -9236,7 +9237,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="41"/>
       <c r="B247" s="20" t="s">
         <v>71</v>
@@ -9256,7 +9257,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="41">
         <v>39965</v>
       </c>
@@ -9280,7 +9281,7 @@
         <v>39973</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="41">
         <v>39995</v>
       </c>
@@ -9304,7 +9305,7 @@
         <v>40003</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="41">
         <v>40026</v>
       </c>
@@ -9328,7 +9329,7 @@
         <v>40049</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="41">
         <v>40057</v>
       </c>
@@ -9348,7 +9349,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="41">
         <v>40087</v>
       </c>
@@ -9374,7 +9375,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="41">
         <v>40118</v>
       </c>
@@ -9400,7 +9401,7 @@
         <v>40129</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="41">
         <v>40148</v>
       </c>
@@ -9424,7 +9425,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="47" t="s">
         <v>61</v>
       </c>
@@ -9442,7 +9443,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="41">
         <v>40179</v>
       </c>
@@ -9468,7 +9469,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="41"/>
       <c r="B257" s="20" t="s">
         <v>67</v>
@@ -9490,7 +9491,7 @@
         <v>40206</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="41">
         <v>40210</v>
       </c>
@@ -9516,7 +9517,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="41"/>
       <c r="B259" s="20" t="s">
         <v>135</v>
@@ -9536,7 +9537,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="41">
         <v>40238</v>
       </c>
@@ -9562,7 +9563,7 @@
         <v>40238</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="41"/>
       <c r="B261" s="20" t="s">
         <v>71</v>
@@ -9582,7 +9583,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="41"/>
       <c r="B262" s="20" t="s">
         <v>67</v>
@@ -9604,7 +9605,7 @@
         <v>40241</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="41"/>
       <c r="B263" s="20" t="s">
         <v>67</v>
@@ -9626,7 +9627,7 @@
         <v>40258</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="41"/>
       <c r="B264" s="20" t="s">
         <v>67</v>
@@ -9648,7 +9649,7 @@
         <v>40260</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="41">
         <v>40269</v>
       </c>
@@ -9674,7 +9675,7 @@
         <v>40288</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="41">
         <v>40299</v>
       </c>
@@ -9700,7 +9701,7 @@
         <v>40305</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="41"/>
       <c r="B267" s="20" t="s">
         <v>188</v>
@@ -9720,7 +9721,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="41">
         <v>40330</v>
       </c>
@@ -9746,7 +9747,7 @@
         <v>40332</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="41"/>
       <c r="B269" s="20" t="s">
         <v>189</v>
@@ -9766,7 +9767,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="41">
         <v>40360</v>
       </c>
@@ -9790,7 +9791,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="41">
         <v>40391</v>
       </c>
@@ -9816,7 +9817,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="41"/>
       <c r="B272" s="20" t="s">
         <v>191</v>
@@ -9836,7 +9837,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="41">
         <v>40422</v>
       </c>
@@ -9862,7 +9863,7 @@
         <v>40437</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="41"/>
       <c r="B274" s="20" t="s">
         <v>192</v>
@@ -9882,7 +9883,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="41">
         <v>40452</v>
       </c>
@@ -9908,7 +9909,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="41"/>
       <c r="B276" s="20" t="s">
         <v>67</v>
@@ -9930,7 +9931,7 @@
         <v>40477</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="41"/>
       <c r="B277" s="20" t="s">
         <v>67</v>
@@ -9952,7 +9953,7 @@
         <v>40479</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="41"/>
       <c r="B278" s="20" t="s">
         <v>193</v>
@@ -9972,7 +9973,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="41">
         <v>40483</v>
       </c>
@@ -9998,7 +9999,7 @@
         <v>40491</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="41">
         <v>40513</v>
       </c>
@@ -10022,7 +10023,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="47" t="s">
         <v>62</v>
       </c>
@@ -10040,7 +10041,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="41">
         <v>40544</v>
       </c>
@@ -10066,7 +10067,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="41"/>
       <c r="B283" s="20" t="s">
         <v>67</v>
@@ -10088,7 +10089,7 @@
         <v>40563</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="41"/>
       <c r="B284" s="20" t="s">
         <v>195</v>
@@ -10108,7 +10109,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="41">
         <v>40575</v>
       </c>
@@ -10128,7 +10129,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="41">
         <v>40603</v>
       </c>
@@ -10152,7 +10153,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="41"/>
       <c r="B287" s="20" t="s">
         <v>197</v>
@@ -10172,7 +10173,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="41">
         <v>40634</v>
       </c>
@@ -10198,7 +10199,7 @@
         <v>40648</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="41">
         <v>40664</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>40665</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="41"/>
       <c r="B290" s="20" t="s">
         <v>67</v>
@@ -10246,7 +10247,7 @@
         <v>40682</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="41"/>
       <c r="B291" s="20" t="s">
         <v>123</v>
@@ -10266,7 +10267,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="41"/>
       <c r="B292" s="20" t="s">
         <v>71</v>
@@ -10286,7 +10287,7 @@
         <v>40700</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="41"/>
       <c r="B293" s="20" t="s">
         <v>71</v>
@@ -10306,7 +10307,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="41">
         <v>40695</v>
       </c>
@@ -10332,7 +10333,7 @@
         <v>40709</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="41"/>
       <c r="B295" s="20" t="s">
         <v>123</v>
@@ -10354,7 +10355,7 @@
         <v>40735</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="41"/>
       <c r="B296" s="20" t="s">
         <v>200</v>
@@ -10374,7 +10375,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="41">
         <v>40725</v>
       </c>
@@ -10400,7 +10401,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="41">
         <v>40756</v>
       </c>
@@ -10424,7 +10425,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="41">
         <v>40787</v>
       </c>
@@ -10448,7 +10449,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="41">
         <v>40817</v>
       </c>
@@ -10474,7 +10475,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="41"/>
       <c r="B301" s="20" t="s">
         <v>67</v>
@@ -10496,7 +10497,7 @@
         <v>40829</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="41"/>
       <c r="B302" s="20" t="s">
         <v>67</v>
@@ -10518,7 +10519,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="41"/>
       <c r="B303" s="20" t="s">
         <v>67</v>
@@ -10540,7 +10541,7 @@
         <v>40844</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="41">
         <v>40848</v>
       </c>
@@ -10564,7 +10565,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="41">
         <v>40878</v>
       </c>
@@ -10590,7 +10591,7 @@
         <v>40904</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="41"/>
       <c r="B306" s="20" t="s">
         <v>131</v>
@@ -10610,7 +10611,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="47" t="s">
         <v>63</v>
       </c>
@@ -10628,7 +10629,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="41">
         <v>40909</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>40917</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="41"/>
       <c r="B309" s="20" t="s">
         <v>67</v>
@@ -10676,7 +10677,7 @@
         <v>40921</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="41"/>
       <c r="B310" s="20" t="s">
         <v>205</v>
@@ -10696,7 +10697,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="41">
         <v>40940</v>
       </c>
@@ -10722,7 +10723,7 @@
         <v>40953</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="41"/>
       <c r="B312" s="20" t="s">
         <v>67</v>
@@ -10744,7 +10745,7 @@
         <v>40960</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="41">
         <v>40969</v>
       </c>
@@ -10770,7 +10771,7 @@
         <v>40991</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="41">
         <v>41000</v>
       </c>
@@ -10796,7 +10797,7 @@
         <v>41017</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="41">
         <v>41030</v>
       </c>
@@ -10822,7 +10823,7 @@
         <v>41045</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="41"/>
       <c r="B316" s="20" t="s">
         <v>71</v>
@@ -10842,7 +10843,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="41">
         <v>41061</v>
       </c>
@@ -10866,7 +10867,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="41">
         <v>41091</v>
       </c>
@@ -10886,7 +10887,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="41">
         <v>41122</v>
       </c>
@@ -10906,7 +10907,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="41">
         <v>41153</v>
       </c>
@@ -10926,7 +10927,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="41">
         <v>41183</v>
       </c>
@@ -10952,7 +10953,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="41"/>
       <c r="B322" s="20" t="s">
         <v>67</v>
@@ -10974,7 +10975,7 @@
         <v>41207</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="41">
         <v>41214</v>
       </c>
@@ -11000,7 +11001,7 @@
         <v>41229</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="41">
         <v>41244</v>
       </c>
@@ -11026,7 +11027,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="47" t="s">
         <v>64</v>
       </c>
@@ -11044,7 +11045,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="41">
         <v>41275</v>
       </c>
@@ -11068,7 +11069,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="41">
         <v>41306</v>
       </c>
@@ -11088,7 +11089,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="41">
         <v>41334</v>
       </c>
@@ -11108,7 +11109,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="41">
         <v>41365</v>
       </c>
@@ -11132,7 +11133,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="41">
         <v>41395</v>
       </c>
@@ -11158,7 +11159,7 @@
         <v>41397</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="41"/>
       <c r="B331" s="20" t="s">
         <v>67</v>
@@ -11180,7 +11181,7 @@
         <v>41410</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="41"/>
       <c r="B332" s="20" t="s">
         <v>211</v>
@@ -11200,7 +11201,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="41">
         <v>41426</v>
       </c>
@@ -11224,7 +11225,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="41">
         <v>41456</v>
       </c>
@@ -11248,7 +11249,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="41"/>
       <c r="B335" s="20" t="s">
         <v>212</v>
@@ -11268,7 +11269,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="41">
         <v>41487</v>
       </c>
@@ -11294,7 +11295,7 @@
         <v>41499</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="41"/>
       <c r="B337" s="20" t="s">
         <v>214</v>
@@ -11314,7 +11315,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="41">
         <v>41518</v>
       </c>
@@ -11340,7 +11341,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="41"/>
       <c r="B339" s="20" t="s">
         <v>104</v>
@@ -11360,7 +11361,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="41">
         <v>41548</v>
       </c>
@@ -11386,7 +11387,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="41"/>
       <c r="B341" s="20" t="s">
         <v>67</v>
@@ -11408,7 +11409,7 @@
         <v>41558</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="41"/>
       <c r="B342" s="20" t="s">
         <v>67</v>
@@ -11430,7 +11431,7 @@
         <v>41569</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="41"/>
       <c r="B343" s="20" t="s">
         <v>216</v>
@@ -11450,7 +11451,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="41">
         <v>41579</v>
       </c>
@@ -11476,7 +11477,7 @@
         <v>41596</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="41">
         <v>41609</v>
       </c>
@@ -11502,7 +11503,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="41"/>
       <c r="B346" s="20" t="s">
         <v>218</v>
@@ -11522,7 +11523,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="47" t="s">
         <v>65</v>
       </c>
@@ -11540,7 +11541,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="41">
         <v>41640</v>
       </c>
@@ -11566,7 +11567,7 @@
         <v>41648</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="41"/>
       <c r="B349" s="20" t="s">
         <v>220</v>
@@ -11586,7 +11587,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="41">
         <v>41671</v>
       </c>
@@ -11610,7 +11611,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="41">
         <v>41699</v>
       </c>
@@ -11636,7 +11637,7 @@
         <v>41718</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="41"/>
       <c r="B352" s="20" t="s">
         <v>222</v>
@@ -11656,7 +11657,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="48"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="41">
         <v>41730</v>
       </c>
@@ -11680,7 +11681,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="41">
         <v>41760</v>
       </c>
@@ -11704,7 +11705,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="41"/>
       <c r="B355" s="20" t="s">
         <v>71</v>
@@ -11724,7 +11725,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="41"/>
       <c r="B356" s="20" t="s">
         <v>80</v>
@@ -11744,7 +11745,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="41">
         <v>41791</v>
       </c>
@@ -11770,7 +11771,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="41"/>
       <c r="B358" s="20" t="s">
         <v>71</v>
@@ -11790,7 +11791,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="41"/>
       <c r="B359" s="20" t="s">
         <v>104</v>
@@ -11810,7 +11811,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="41">
         <v>41821</v>
       </c>
@@ -11830,7 +11831,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="41">
         <v>41852</v>
       </c>
@@ -11856,7 +11857,7 @@
         <v>41859</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="41"/>
       <c r="B362" s="20" t="s">
         <v>67</v>
@@ -11878,7 +11879,7 @@
         <v>41877</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="41"/>
       <c r="B363" s="20" t="s">
         <v>128</v>
@@ -11898,7 +11899,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="41">
         <v>41883</v>
       </c>
@@ -11922,7 +11923,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="41">
         <v>41913</v>
       </c>
@@ -11948,7 +11949,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="41"/>
       <c r="B366" s="20" t="s">
         <v>66</v>
@@ -11970,7 +11971,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="41"/>
       <c r="B367" s="20" t="s">
         <v>67</v>
@@ -11992,7 +11993,7 @@
         <v>41933</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="41"/>
       <c r="B368" s="20" t="s">
         <v>236</v>
@@ -12012,7 +12013,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="48"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="41">
         <v>41944</v>
       </c>
@@ -12036,7 +12037,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="48"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="41">
         <v>41974</v>
       </c>
@@ -12060,7 +12061,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="48"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="41"/>
       <c r="B371" s="20" t="s">
         <v>104</v>
@@ -12080,7 +12081,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="48"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="47" t="s">
         <v>229</v>
       </c>
@@ -12098,7 +12099,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="48"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="41">
         <v>42005</v>
       </c>
@@ -12124,7 +12125,7 @@
         <v>42013</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="41"/>
       <c r="B374" s="20" t="s">
         <v>67</v>
@@ -12146,7 +12147,7 @@
         <v>42018</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="41">
         <v>42036</v>
       </c>
@@ -12170,7 +12171,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="41">
         <v>42064</v>
       </c>
@@ -12194,7 +12195,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="41"/>
       <c r="B377" s="20" t="s">
         <v>240</v>
@@ -12214,7 +12215,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="41">
         <v>42095</v>
       </c>
@@ -12240,7 +12241,7 @@
         <v>42108</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="41"/>
       <c r="B379" s="20" t="s">
         <v>67</v>
@@ -12262,7 +12263,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="41"/>
       <c r="B380" s="20" t="s">
         <v>241</v>
@@ -12282,7 +12283,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="41">
         <v>42125</v>
       </c>
@@ -12308,7 +12309,7 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="41"/>
       <c r="B382" s="20" t="s">
         <v>129</v>
@@ -12328,7 +12329,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="41">
         <v>42156</v>
       </c>
@@ -12352,7 +12353,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="41"/>
       <c r="B384" s="20" t="s">
         <v>67</v>
@@ -12374,7 +12375,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="41"/>
       <c r="B385" s="20" t="s">
         <v>71</v>
@@ -12394,7 +12395,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="41"/>
       <c r="B386" s="20" t="s">
         <v>237</v>
@@ -12414,7 +12415,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="41">
         <v>42186</v>
       </c>
@@ -12438,7 +12439,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="41">
         <v>42217</v>
       </c>
@@ -12462,7 +12463,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="41">
         <v>42248</v>
       </c>
@@ -12486,7 +12487,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="41">
         <v>42278</v>
       </c>
@@ -12512,7 +12513,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="41"/>
       <c r="B391" s="20" t="s">
         <v>45</v>
@@ -12534,7 +12535,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="41"/>
       <c r="B392" s="20" t="s">
         <v>67</v>
@@ -12556,7 +12557,7 @@
         <v>42284</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="41"/>
       <c r="B393" s="20" t="s">
         <v>66</v>
@@ -12578,7 +12579,7 @@
         <v>42303</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="41"/>
       <c r="B394" s="20" t="s">
         <v>244</v>
@@ -12600,7 +12601,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="41">
         <v>42309</v>
       </c>
@@ -12626,7 +12627,7 @@
         <v>42332</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="41"/>
       <c r="B396" s="20" t="s">
         <v>247</v>
@@ -12646,7 +12647,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="41">
         <v>42339</v>
       </c>
@@ -12670,7 +12671,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="47" t="s">
         <v>230</v>
       </c>
@@ -12688,7 +12689,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="41">
         <v>42370</v>
       </c>
@@ -12712,7 +12713,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="41">
         <v>42401</v>
       </c>
@@ -12736,7 +12737,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="41">
         <v>42430</v>
       </c>
@@ -12762,7 +12763,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="41">
         <v>42461</v>
       </c>
@@ -12786,7 +12787,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="41">
         <v>42491</v>
       </c>
@@ -12812,7 +12813,7 @@
         <v>42501</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="41"/>
       <c r="B404" s="20" t="s">
         <v>250</v>
@@ -12832,7 +12833,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="41">
         <v>42522</v>
       </c>
@@ -12856,7 +12857,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="41"/>
       <c r="B406" s="20" t="s">
         <v>75</v>
@@ -12878,7 +12879,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="41"/>
       <c r="B407" s="20" t="s">
         <v>71</v>
@@ -12898,7 +12899,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="41"/>
       <c r="B408" s="20" t="s">
         <v>251</v>
@@ -12918,7 +12919,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="41">
         <v>42552</v>
       </c>
@@ -12944,7 +12945,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="41"/>
       <c r="B410" s="20" t="s">
         <v>255</v>
@@ -12964,7 +12965,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="48"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="41">
         <v>42583</v>
       </c>
@@ -12990,7 +12991,7 @@
         <v>42601</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="41">
         <v>42614</v>
       </c>
@@ -13014,7 +13015,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="41"/>
       <c r="B413" s="20" t="s">
         <v>256</v>
@@ -13034,7 +13035,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="41">
         <v>42644</v>
       </c>
@@ -13060,7 +13061,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="41"/>
       <c r="B415" s="20" t="s">
         <v>75</v>
@@ -13082,7 +13083,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="41"/>
       <c r="B416" s="20" t="s">
         <v>122</v>
@@ -13104,7 +13105,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="41"/>
       <c r="B417" s="20" t="s">
         <v>66</v>
@@ -13126,7 +13127,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="41"/>
       <c r="B418" s="20" t="s">
         <v>176</v>
@@ -13148,7 +13149,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="41"/>
       <c r="B419" s="20" t="s">
         <v>66</v>
@@ -13170,7 +13171,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="41"/>
       <c r="B420" s="20" t="s">
         <v>129</v>
@@ -13190,7 +13191,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="41">
         <v>42675</v>
       </c>
@@ -13210,7 +13211,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="41">
         <v>42705</v>
       </c>
@@ -13236,7 +13237,7 @@
         <v>42717</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="41"/>
       <c r="B423" s="20" t="s">
         <v>67</v>
@@ -13258,7 +13259,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="41"/>
       <c r="B424" s="20" t="s">
         <v>67</v>
@@ -13280,7 +13281,7 @@
         <v>42733</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="41"/>
       <c r="B425" s="20" t="s">
         <v>227</v>
@@ -13300,7 +13301,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="47" t="s">
         <v>231</v>
       </c>
@@ -13318,7 +13319,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="41">
         <v>42736</v>
       </c>
@@ -13344,7 +13345,7 @@
         <v>42751</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="41"/>
       <c r="B428" s="20" t="s">
         <v>67</v>
@@ -13366,7 +13367,7 @@
         <v>42765</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="41"/>
       <c r="B429" s="20" t="s">
         <v>104</v>
@@ -13386,7 +13387,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="41">
         <v>42767</v>
       </c>
@@ -13412,7 +13413,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="41"/>
       <c r="B431" s="20" t="s">
         <v>264</v>
@@ -13432,7 +13433,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="41">
         <v>42795</v>
       </c>
@@ -13458,7 +13459,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="41"/>
       <c r="B433" s="20" t="s">
         <v>67</v>
@@ -13480,7 +13481,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="41"/>
       <c r="B434" s="20" t="s">
         <v>190</v>
@@ -13500,7 +13501,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="41">
         <v>42826</v>
       </c>
@@ -13526,7 +13527,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>104</v>
@@ -13544,7 +13545,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="41">
         <v>42856</v>
       </c>
@@ -13568,7 +13569,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="41"/>
       <c r="B438" s="20" t="s">
         <v>71</v>
@@ -13588,7 +13589,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="41"/>
       <c r="B439" s="20" t="s">
         <v>240</v>
@@ -13608,7 +13609,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="41">
         <v>42887</v>
       </c>
@@ -13632,7 +13633,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="41">
         <v>42917</v>
       </c>
@@ -13656,7 +13657,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="41"/>
       <c r="B442" s="20" t="s">
         <v>66</v>
@@ -13678,7 +13679,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="41"/>
       <c r="B443" s="20" t="s">
         <v>67</v>
@@ -13700,7 +13701,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="41">
         <v>42948</v>
       </c>
@@ -13724,7 +13725,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="41">
         <v>42979</v>
       </c>
@@ -13750,7 +13751,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="41"/>
       <c r="B446" s="20" t="s">
         <v>135</v>
@@ -13770,7 +13771,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="48"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="41">
         <v>43009</v>
       </c>
@@ -13796,7 +13797,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="41"/>
       <c r="B448" s="20" t="s">
         <v>45</v>
@@ -13818,7 +13819,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="41">
         <v>43040</v>
       </c>
@@ -13844,7 +13845,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="41">
         <v>43070</v>
       </c>
@@ -13868,7 +13869,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="41"/>
       <c r="B451" s="20" t="s">
         <v>48</v>
@@ -13890,7 +13891,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="47" t="s">
         <v>232</v>
       </c>
@@ -13908,7 +13909,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="41">
         <v>43101</v>
       </c>
@@ -13934,7 +13935,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="41"/>
       <c r="B454" s="20" t="s">
         <v>67</v>
@@ -13956,7 +13957,7 @@
         <v>43109</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="41">
         <v>43132</v>
       </c>
@@ -13982,7 +13983,7 @@
         <v>43136</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="41">
         <v>43160</v>
       </c>
@@ -14008,7 +14009,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="41">
         <v>43191</v>
       </c>
@@ -14034,7 +14035,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="41"/>
       <c r="B458" s="20" t="s">
         <v>274</v>
@@ -14056,7 +14057,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="41"/>
       <c r="B459" s="20" t="s">
         <v>275</v>
@@ -14078,7 +14079,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="41">
         <v>43221</v>
       </c>
@@ -14104,7 +14105,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="41"/>
       <c r="B461" s="20" t="s">
         <v>66</v>
@@ -14126,7 +14127,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="41"/>
       <c r="B462" s="20" t="s">
         <v>71</v>
@@ -14146,7 +14147,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="41"/>
       <c r="B463" s="20" t="s">
         <v>67</v>
@@ -14168,7 +14169,7 @@
         <v>43279</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="41">
         <v>43252</v>
       </c>
@@ -14192,7 +14193,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="41">
         <v>43282</v>
       </c>
@@ -14218,7 +14219,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="41">
         <v>43313</v>
       </c>
@@ -14244,7 +14245,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="41">
         <v>43344</v>
       </c>
@@ -14270,7 +14271,7 @@
         <v>43354</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="41"/>
       <c r="B468" s="20" t="s">
         <v>67</v>
@@ -14292,7 +14293,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="41">
         <v>43374</v>
       </c>
@@ -14318,7 +14319,7 @@
         <v>43375</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="41"/>
       <c r="B470" s="20" t="s">
         <v>67</v>
@@ -14340,7 +14341,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="41"/>
       <c r="B471" s="20" t="s">
         <v>45</v>
@@ -14362,7 +14363,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="41"/>
       <c r="B472" s="20" t="s">
         <v>66</v>
@@ -14384,7 +14385,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="41">
         <v>43405</v>
       </c>
@@ -14410,7 +14411,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="41">
         <v>43435</v>
       </c>
@@ -14436,7 +14437,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="47" t="s">
         <v>233</v>
       </c>
@@ -14454,7 +14455,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="41">
         <v>43466</v>
       </c>
@@ -14480,7 +14481,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="41">
         <v>43497</v>
       </c>
@@ -14506,7 +14507,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="41"/>
       <c r="B478" s="20" t="s">
         <v>67</v>
@@ -14528,7 +14529,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="41">
         <v>43525</v>
       </c>
@@ -14548,7 +14549,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="41">
         <v>43556</v>
       </c>
@@ -14568,7 +14569,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="41">
         <v>43586</v>
       </c>
@@ -14594,7 +14595,7 @@
         <v>43600</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="41">
         <v>43617</v>
       </c>
@@ -14618,7 +14619,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="41"/>
       <c r="B483" s="20" t="s">
         <v>71</v>
@@ -14638,7 +14639,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="41">
         <v>43647</v>
       </c>
@@ -14664,7 +14665,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="41">
         <v>43678</v>
       </c>
@@ -14690,7 +14691,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="41">
         <v>43709</v>
       </c>
@@ -14716,7 +14717,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="41">
         <v>43739</v>
       </c>
@@ -14742,7 +14743,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="41"/>
       <c r="B488" s="20" t="s">
         <v>67</v>
@@ -14764,7 +14765,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="41"/>
       <c r="B489" s="20" t="s">
         <v>67</v>
@@ -14786,7 +14787,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="41">
         <v>43770</v>
       </c>
@@ -14806,7 +14807,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="41">
         <v>43800</v>
       </c>
@@ -14832,7 +14833,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="41"/>
       <c r="B492" s="20" t="s">
         <v>48</v>
@@ -14854,7 +14855,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="41"/>
       <c r="B493" s="20" t="s">
         <v>67</v>
@@ -14876,7 +14877,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="41"/>
       <c r="B494" s="20" t="s">
         <v>71</v>
@@ -14896,7 +14897,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="47" t="s">
         <v>234</v>
       </c>
@@ -14914,7 +14915,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="41">
         <v>43831</v>
       </c>
@@ -14938,7 +14939,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="41"/>
       <c r="B497" s="20" t="s">
         <v>67</v>
@@ -14958,7 +14959,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="41">
         <v>43862</v>
       </c>
@@ -14978,7 +14979,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="41">
         <v>43891</v>
       </c>
@@ -15004,7 +15005,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="41">
         <v>43922</v>
       </c>
@@ -15024,7 +15025,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="41">
         <v>43952</v>
       </c>
@@ -15044,7 +15045,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="41">
         <v>43983</v>
       </c>
@@ -15070,7 +15071,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="41"/>
       <c r="B503" s="20" t="s">
         <v>71</v>
@@ -15090,7 +15091,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="41">
         <v>44013</v>
       </c>
@@ -15110,7 +15111,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="41">
         <v>44044</v>
       </c>
@@ -15136,7 +15137,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="41">
         <v>44075</v>
       </c>
@@ -15156,7 +15157,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="41">
         <v>44105</v>
       </c>
@@ -15182,7 +15183,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="41"/>
       <c r="B508" s="20" t="s">
         <v>67</v>
@@ -15204,7 +15205,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="41">
         <v>44136</v>
       </c>
@@ -15224,7 +15225,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="41">
         <v>44166</v>
       </c>
@@ -15250,7 +15251,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="47" t="s">
         <v>295</v>
       </c>
@@ -15268,7 +15269,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="41">
         <v>44197</v>
       </c>
@@ -15288,7 +15289,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="41">
         <v>44228</v>
       </c>
@@ -15308,7 +15309,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="41">
         <v>44256</v>
       </c>
@@ -15328,7 +15329,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="41">
         <v>44287</v>
       </c>
@@ -15348,7 +15349,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="41">
         <v>44317</v>
       </c>
@@ -15368,7 +15369,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="41">
         <v>44348</v>
       </c>
@@ -15388,7 +15389,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="41">
         <v>44378</v>
       </c>
@@ -15408,7 +15409,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="41">
         <v>44409</v>
       </c>
@@ -15428,7 +15429,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="41">
         <v>44440</v>
       </c>
@@ -15448,7 +15449,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="41">
         <v>44470</v>
       </c>
@@ -15474,7 +15475,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="41">
         <v>44501</v>
       </c>
@@ -15494,7 +15495,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="41">
         <v>44531</v>
       </c>
@@ -15520,7 +15521,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="47" t="s">
         <v>300</v>
       </c>
@@ -15538,7 +15539,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="41">
         <v>44562</v>
       </c>
@@ -15558,7 +15559,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="41">
         <v>44593</v>
       </c>
@@ -15578,7 +15579,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="41">
         <v>44621</v>
       </c>
@@ -15604,7 +15605,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="41">
         <v>44652</v>
       </c>
@@ -15624,7 +15625,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="41">
         <v>44682</v>
       </c>
@@ -15650,7 +15651,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="41"/>
       <c r="B530" s="20" t="s">
         <v>71</v>
@@ -15670,7 +15671,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="41">
         <v>44713</v>
       </c>
@@ -15690,7 +15691,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="41">
         <v>44743</v>
       </c>
@@ -15714,7 +15715,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="41"/>
       <c r="B533" s="20" t="s">
         <v>67</v>
@@ -15736,7 +15737,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="41"/>
       <c r="B534" s="20" t="s">
         <v>67</v>
@@ -15758,7 +15759,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>44774</v>
       </c>
@@ -15784,7 +15785,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <f>EDATE(A535,1)</f>
         <v>44805</v>
@@ -15811,7 +15812,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <f t="shared" ref="A537:A547" si="0">EDATE(A536,1)</f>
         <v>44835</v>
@@ -15838,7 +15839,7 @@
         <v>44844</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>48</v>
@@ -15860,7 +15861,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <f>EDATE(A537,1)</f>
         <v>44866</v>
@@ -15887,7 +15888,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <f t="shared" si="0"/>
         <v>44896</v>
@@ -15914,7 +15915,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>71</v>
@@ -15934,7 +15935,7 @@
         <v>44901</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="52" t="s">
         <v>304</v>
       </c>
@@ -15952,7 +15953,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <f>EDATE(A540,1)</f>
         <v>44927</v>
@@ -15979,7 +15980,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="15" t="s">
         <v>67</v>
@@ -16001,7 +16002,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <f>EDATE(A543,1)</f>
         <v>44958</v>
@@ -16028,7 +16029,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <f t="shared" si="0"/>
         <v>44986</v>
@@ -16049,7 +16050,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <f t="shared" si="0"/>
         <v>45017</v>
@@ -16076,7 +16077,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>67</v>
@@ -16098,7 +16099,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <f>EDATE(A547,1)</f>
         <v>45047</v>
@@ -16106,13 +16107,15 @@
       <c r="B549" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C549" s="13"/>
+      <c r="C549" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D549" s="39"/>
       <c r="E549" s="9"/>
       <c r="F549" s="20"/>
-      <c r="G549" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G549" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H549" s="39">
         <v>1</v>
@@ -16123,9 +16126,11 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
-      <c r="B550" s="20"/>
+      <c r="B550" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C550" s="13"/>
       <c r="D550" s="39"/>
       <c r="E550" s="9"/>
@@ -16137,11 +16142,17 @@
       <c r="H550" s="39"/>
       <c r="I550" s="9"/>
       <c r="J550" s="11"/>
-      <c r="K550" s="20"/>
-    </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A551" s="40"/>
-      <c r="B551" s="20"/>
+      <c r="K550" s="48">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A551" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B551" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C551" s="13"/>
       <c r="D551" s="39"/>
       <c r="E551" s="9"/>
@@ -16150,13 +16161,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H551" s="39"/>
+      <c r="H551" s="39">
+        <v>1</v>
+      </c>
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
-      <c r="K551" s="20"/>
-    </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A552" s="40"/>
+      <c r="K551" s="48">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A552" s="40">
+        <v>45108</v>
+      </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
       <c r="D552" s="39"/>
@@ -16171,8 +16188,10 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A553" s="40"/>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A553" s="40">
+        <v>45139</v>
+      </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
       <c r="D553" s="39"/>
@@ -16187,8 +16206,10 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A554" s="40"/>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A554" s="40">
+        <v>45170</v>
+      </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
       <c r="D554" s="39"/>
@@ -16203,8 +16224,10 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="40"/>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A555" s="40">
+        <v>45200</v>
+      </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
       <c r="D555" s="39"/>
@@ -16219,8 +16242,10 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A556" s="40"/>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A556" s="40">
+        <v>45231</v>
+      </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
       <c r="D556" s="39"/>
@@ -16235,8 +16260,10 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A557" s="40"/>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A557" s="40">
+        <v>45261</v>
+      </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
       <c r="D557" s="39"/>
@@ -16251,8 +16278,10 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A558" s="40"/>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A558" s="40">
+        <v>45292</v>
+      </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
       <c r="D558" s="39"/>
@@ -16267,8 +16296,10 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A559" s="40"/>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A559" s="40">
+        <v>45323</v>
+      </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
       <c r="D559" s="39"/>
@@ -16283,8 +16314,10 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A560" s="40"/>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A560" s="40">
+        <v>45352</v>
+      </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
       <c r="D560" s="39"/>
@@ -16299,8 +16332,10 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40"/>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A561" s="40">
+        <v>45383</v>
+      </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
       <c r="D561" s="39"/>
@@ -16315,8 +16350,10 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A562" s="40"/>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A562" s="40">
+        <v>45413</v>
+      </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
       <c r="D562" s="39"/>
@@ -16331,8 +16368,10 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A563" s="40"/>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A563" s="40">
+        <v>45444</v>
+      </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
       <c r="D563" s="39"/>
@@ -16347,8 +16386,10 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564" s="40"/>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A564" s="40">
+        <v>45474</v>
+      </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
       <c r="D564" s="39"/>
@@ -16363,8 +16404,10 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A565" s="40"/>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A565" s="40">
+        <v>45505</v>
+      </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
       <c r="D565" s="39"/>
@@ -16379,8 +16422,10 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A566" s="40"/>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A566" s="40">
+        <v>45536</v>
+      </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
       <c r="D566" s="39"/>
@@ -16395,8 +16440,10 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="40"/>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A567" s="40">
+        <v>45566</v>
+      </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
       <c r="D567" s="39"/>
@@ -16411,8 +16458,10 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40"/>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A568" s="40">
+        <v>45597</v>
+      </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
       <c r="D568" s="39"/>
@@ -16427,8 +16476,10 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40"/>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A569" s="40">
+        <v>45627</v>
+      </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
       <c r="D569" s="39"/>
@@ -16443,8 +16494,10 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" s="40"/>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A570" s="40">
+        <v>45658</v>
+      </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
       <c r="D570" s="39"/>
@@ -16459,8 +16512,10 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" s="40"/>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A571" s="40">
+        <v>45689</v>
+      </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
       <c r="D571" s="39"/>
@@ -16475,8 +16530,10 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="40"/>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A572" s="40">
+        <v>45717</v>
+      </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
       <c r="D572" s="39"/>
@@ -16491,8 +16548,10 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40"/>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A573" s="40">
+        <v>45748</v>
+      </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
       <c r="D573" s="39"/>
@@ -16507,8 +16566,10 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="40"/>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A574" s="40">
+        <v>45778</v>
+      </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
       <c r="D574" s="39"/>
@@ -16523,8 +16584,10 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40"/>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A575" s="40">
+        <v>45809</v>
+      </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
       <c r="D575" s="39"/>
@@ -16539,7 +16602,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16555,7 +16618,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16571,7 +16634,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16587,7 +16650,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16603,7 +16666,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16619,7 +16682,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16635,7 +16698,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16651,7 +16714,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="41"/>
       <c r="B583" s="15"/>
       <c r="C583" s="42"/>
@@ -16682,10 +16745,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16708,7 +16771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16716,21 +16779,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16743,7 +16806,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16772,7 +16835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>39.625</v>
       </c>
@@ -16798,17 +16861,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16829,7 +16892,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16856,7 +16919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16882,7 +16945,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16908,7 +16971,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16934,7 +16997,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16960,7 +17023,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16986,7 +17049,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17012,7 +17075,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17038,7 +17101,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17058,7 +17121,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17078,7 +17141,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17098,7 +17161,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17119,7 +17182,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17140,7 +17203,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17161,7 +17224,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17182,7 +17245,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17203,7 +17266,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17224,7 +17287,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17245,7 +17308,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17266,7 +17329,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17287,7 +17350,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17308,7 +17371,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17329,7 +17392,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17350,7 +17413,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17371,7 +17434,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17392,7 +17455,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17413,7 +17476,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17434,7 +17497,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17455,7 +17518,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17476,7 +17539,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17497,7 +17560,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17518,7 +17581,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17527,7 +17590,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17536,7 +17599,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17545,7 +17608,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17554,7 +17617,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17563,7 +17626,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17572,7 +17635,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17581,7 +17644,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17590,7 +17653,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17599,7 +17662,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17608,7 +17671,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17617,7 +17680,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17626,7 +17689,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17635,7 +17698,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17644,7 +17707,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17653,7 +17716,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17662,7 +17725,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17671,7 +17734,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17680,7 +17743,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17689,7 +17752,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17698,7 +17761,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17707,7 +17770,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17716,7 +17779,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17725,7 +17788,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17734,7 +17797,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17743,7 +17806,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17752,7 +17815,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17761,7 +17824,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17770,7 +17833,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17779,7 +17842,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ANGCAYA, RUFINA.xlsx
+++ b/REGULAR/ANGCAYA, RUFINA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63B1AE4-7430-46D3-83F8-804E9A26A57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC70758-81C1-489D-9F03-A1A43CE05153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="308">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3366,7 +3366,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K583" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K586" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3744,12 +3744,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K583"/>
+  <dimension ref="A2:K586"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A549" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B552" sqref="B552"/>
+      <pane ySplit="3576" topLeftCell="A543" activePane="bottomLeft"/>
+      <selection activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B555" sqref="B555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3910,7 +3910,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>182.58700000000005</v>
+        <v>183.83700000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3920,7 +3920,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>185.875</v>
+        <v>185.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16153,13 +16153,15 @@
       <c r="B551" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C551" s="13"/>
+      <c r="C551" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D551" s="39"/>
       <c r="E551" s="9"/>
       <c r="F551" s="20"/>
-      <c r="G551" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G551" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H551" s="39">
         <v>1</v>
@@ -16171,10 +16173,10 @@
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A552" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B552" s="20"/>
+      <c r="A552" s="40"/>
+      <c r="B552" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C552" s="13"/>
       <c r="D552" s="39"/>
       <c r="E552" s="9"/>
@@ -16183,16 +16185,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H552" s="39"/>
+      <c r="H552" s="39">
+        <v>1</v>
+      </c>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
-      <c r="K552" s="20"/>
+      <c r="K552" s="48">
+        <v>45097</v>
+      </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A553" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B553" s="20"/>
+      <c r="A553" s="40"/>
+      <c r="B553" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C553" s="13"/>
       <c r="D553" s="39"/>
       <c r="E553" s="9"/>
@@ -16201,16 +16207,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H553" s="39"/>
+      <c r="H553" s="39">
+        <v>1</v>
+      </c>
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
-      <c r="K553" s="20"/>
+      <c r="K553" s="48">
+        <v>45107</v>
+      </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A554" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B554" s="20"/>
+      <c r="A554" s="40"/>
+      <c r="B554" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C554" s="13"/>
       <c r="D554" s="39"/>
       <c r="E554" s="9"/>
@@ -16222,11 +16232,13 @@
       <c r="H554" s="39"/>
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
-      <c r="K554" s="20"/>
+      <c r="K554" s="48">
+        <v>45117</v>
+      </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
-        <v>45200</v>
+        <v>45108</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16244,7 +16256,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16262,7 +16274,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
-        <v>45261</v>
+        <v>45170</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16280,7 +16292,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
-        <v>45292</v>
+        <v>45200</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16298,7 +16310,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
-        <v>45323</v>
+        <v>45231</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16316,7 +16328,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
-        <v>45352</v>
+        <v>45261</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16334,7 +16346,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16352,7 +16364,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16370,7 +16382,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16388,7 +16400,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16406,7 +16418,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16424,7 +16436,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16442,7 +16454,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16460,7 +16472,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16478,7 +16490,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16496,7 +16508,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16514,7 +16526,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16532,7 +16544,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16550,7 +16562,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16568,7 +16580,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16586,7 +16598,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16603,7 +16615,9 @@
       <c r="K575" s="20"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A576" s="40"/>
+      <c r="A576" s="40">
+        <v>45748</v>
+      </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
       <c r="D576" s="39"/>
@@ -16619,7 +16633,9 @@
       <c r="K576" s="20"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A577" s="40"/>
+      <c r="A577" s="40">
+        <v>45778</v>
+      </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
       <c r="D577" s="39"/>
@@ -16635,7 +16651,9 @@
       <c r="K577" s="20"/>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A578" s="40"/>
+      <c r="A578" s="40">
+        <v>45809</v>
+      </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
       <c r="D578" s="39"/>
@@ -16715,20 +16733,68 @@
       <c r="K582" s="20"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A583" s="41"/>
-      <c r="B583" s="15"/>
-      <c r="C583" s="42"/>
-      <c r="D583" s="43"/>
+      <c r="A583" s="40"/>
+      <c r="B583" s="20"/>
+      <c r="C583" s="13"/>
+      <c r="D583" s="39"/>
       <c r="E583" s="9"/>
-      <c r="F583" s="15"/>
-      <c r="G583" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H583" s="43"/>
+      <c r="F583" s="20"/>
+      <c r="G583" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H583" s="39"/>
       <c r="I583" s="9"/>
-      <c r="J583" s="12"/>
-      <c r="K583" s="15"/>
+      <c r="J583" s="11"/>
+      <c r="K583" s="20"/>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A584" s="40"/>
+      <c r="B584" s="20"/>
+      <c r="C584" s="13"/>
+      <c r="D584" s="39"/>
+      <c r="E584" s="9"/>
+      <c r="F584" s="20"/>
+      <c r="G584" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H584" s="39"/>
+      <c r="I584" s="9"/>
+      <c r="J584" s="11"/>
+      <c r="K584" s="20"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A585" s="40"/>
+      <c r="B585" s="20"/>
+      <c r="C585" s="13"/>
+      <c r="D585" s="39"/>
+      <c r="E585" s="9"/>
+      <c r="F585" s="20"/>
+      <c r="G585" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H585" s="39"/>
+      <c r="I585" s="9"/>
+      <c r="J585" s="11"/>
+      <c r="K585" s="20"/>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A586" s="41"/>
+      <c r="B586" s="15"/>
+      <c r="C586" s="42"/>
+      <c r="D586" s="43"/>
+      <c r="E586" s="9"/>
+      <c r="F586" s="15"/>
+      <c r="G586" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H586" s="43"/>
+      <c r="I586" s="9"/>
+      <c r="J586" s="12"/>
+      <c r="K586" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
